--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9858CDCD-FC87-45FB-8E15-A570D1E48E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9341A879-BEBC-4DDD-A517-A90E14BD8195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7938" uniqueCount="2510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8484" uniqueCount="2666">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -4484,7 +4484,7 @@
     <t>e_IT1-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT1-220,way/153772895-220</t>
+    <t>grid node -- IT1-220</t>
   </si>
   <si>
     <t>fx</t>
@@ -4493,3082 +4493,3550 @@
     <t>e_IT10-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT10-220</t>
+    <t>grid node -- IT10-220</t>
   </si>
   <si>
     <t>e_IT100-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT100-220</t>
+    <t>grid node -- IT100-220</t>
   </si>
   <si>
     <t>e_IT101-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT101-220</t>
+    <t>grid node -- IT101-220</t>
   </si>
   <si>
     <t>e_IT102-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT102-380</t>
+    <t>grid node -- IT102-380</t>
   </si>
   <si>
     <t>e_IT103-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT103-220</t>
+    <t>grid node -- IT103-220</t>
   </si>
   <si>
     <t>e_IT104-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT104-220</t>
+    <t>grid node -- IT104-220</t>
   </si>
   <si>
     <t>e_IT105-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT105-220</t>
+    <t>grid node -- IT105-220</t>
   </si>
   <si>
     <t>e_IT106-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT106-220</t>
+    <t>grid node -- IT106-220</t>
   </si>
   <si>
     <t>e_IT107-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT107-220,IT108-220</t>
+    <t>grid node -- IT107-220</t>
+  </si>
+  <si>
+    <t>e_IT108-220</t>
+  </si>
+  <si>
+    <t>grid node -- IT108-220</t>
   </si>
   <si>
     <t>e_IT109-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT109-220</t>
+    <t>grid node -- IT109-220</t>
   </si>
   <si>
     <t>e_IT11-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT11-220</t>
+    <t>grid node -- IT11-220</t>
   </si>
   <si>
     <t>e_IT110-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT110-220</t>
+    <t>grid node -- IT110-220</t>
   </si>
   <si>
     <t>e_IT111-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT111-220</t>
+    <t>grid node -- IT111-220</t>
   </si>
   <si>
     <t>e_IT112-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT112-220</t>
+    <t>grid node -- IT112-220</t>
   </si>
   <si>
     <t>e_IT113-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT113-220</t>
+    <t>grid node -- IT113-220</t>
   </si>
   <si>
     <t>e_IT115-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT115-220</t>
+    <t>grid node -- IT115-220</t>
   </si>
   <si>
     <t>e_IT116-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT116-220</t>
+    <t>grid node -- IT116-220</t>
   </si>
   <si>
     <t>e_IT117-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT117-220,IT118-380</t>
+    <t>grid node -- IT117-220</t>
+  </si>
+  <si>
+    <t>e_IT118-380</t>
+  </si>
+  <si>
+    <t>grid node -- IT118-380</t>
   </si>
   <si>
     <t>e_IT119-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT119-380</t>
+    <t>grid node -- IT119-380</t>
   </si>
   <si>
     <t>e_IT12-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT12-220</t>
+    <t>grid node -- IT12-220</t>
   </si>
   <si>
     <t>e_IT120-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT120-380</t>
+    <t>grid node -- IT120-380</t>
   </si>
   <si>
     <t>e_IT121-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT121-380</t>
+    <t>grid node -- IT121-380</t>
   </si>
   <si>
     <t>e_IT122-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT122-380</t>
+    <t>grid node -- IT122-380</t>
   </si>
   <si>
     <t>e_IT123-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT123-380</t>
+    <t>grid node -- IT123-380</t>
   </si>
   <si>
     <t>e_IT124-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT124-380</t>
+    <t>grid node -- IT124-380</t>
   </si>
   <si>
     <t>e_IT125-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT125-380</t>
+    <t>grid node -- IT125-380</t>
   </si>
   <si>
     <t>e_IT126-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT126-220</t>
+    <t>grid node -- IT126-220</t>
   </si>
   <si>
     <t>e_IT127-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT127-380</t>
+    <t>grid node -- IT127-380</t>
   </si>
   <si>
     <t>e_IT128-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT128-220</t>
+    <t>grid node -- IT128-220</t>
   </si>
   <si>
     <t>e_IT129-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT129-220,way/202179060-220</t>
+    <t>grid node -- IT129-220</t>
   </si>
   <si>
     <t>e_IT13-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT13-380</t>
+    <t>grid node -- IT13-380</t>
   </si>
   <si>
     <t>e_IT130-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT130-220</t>
+    <t>grid node -- IT130-220</t>
   </si>
   <si>
     <t>e_IT131-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT131-380</t>
+    <t>grid node -- IT131-380</t>
   </si>
   <si>
     <t>e_IT132-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT132-380</t>
+    <t>grid node -- IT132-380</t>
   </si>
   <si>
     <t>e_IT133-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT133-220</t>
+    <t>grid node -- IT133-220</t>
   </si>
   <si>
     <t>e_IT134-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT134-380</t>
+    <t>grid node -- IT134-380</t>
   </si>
   <si>
     <t>e_IT135-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT135-220</t>
+    <t>grid node -- IT135-220</t>
   </si>
   <si>
     <t>e_IT136-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT136-380</t>
+    <t>grid node -- IT136-380</t>
   </si>
   <si>
     <t>e_IT137-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT137-220</t>
+    <t>grid node -- IT137-220</t>
   </si>
   <si>
     <t>e_IT138-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT138-380,IT139-380</t>
+    <t>grid node -- IT138-380</t>
+  </si>
+  <si>
+    <t>e_IT139-380</t>
+  </si>
+  <si>
+    <t>grid node -- IT139-380</t>
   </si>
   <si>
     <t>e_IT14-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT14-220</t>
+    <t>grid node -- IT14-220</t>
   </si>
   <si>
     <t>e_IT140-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT140-380</t>
+    <t>grid node -- IT140-380</t>
   </si>
   <si>
     <t>e_IT141-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT141-380</t>
+    <t>grid node -- IT141-380</t>
   </si>
   <si>
     <t>e_IT142-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT142-380</t>
+    <t>grid node -- IT142-380</t>
   </si>
   <si>
     <t>e_IT143-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT143-380</t>
+    <t>grid node -- IT143-380</t>
   </si>
   <si>
     <t>e_IT15-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT15-220</t>
+    <t>grid node -- IT15-220</t>
   </si>
   <si>
     <t>e_IT16-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT16-220</t>
+    <t>grid node -- IT16-220</t>
   </si>
   <si>
     <t>e_IT17-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT17-220</t>
+    <t>grid node -- IT17-220</t>
   </si>
   <si>
     <t>e_IT18-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT18-220</t>
+    <t>grid node -- IT18-220</t>
   </si>
   <si>
     <t>e_IT19-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT19-380</t>
+    <t>grid node -- IT19-380</t>
   </si>
   <si>
     <t>e_IT2-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT2-220</t>
+    <t>grid node -- IT2-220</t>
   </si>
   <si>
     <t>e_IT20-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT20-220</t>
+    <t>grid node -- IT20-220</t>
   </si>
   <si>
     <t>e_IT21-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT21-380</t>
+    <t>grid node -- IT21-380</t>
   </si>
   <si>
     <t>e_IT23-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT23-380</t>
+    <t>grid node -- IT23-380</t>
   </si>
   <si>
     <t>e_IT24-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT24-380</t>
+    <t>grid node -- IT24-380</t>
   </si>
   <si>
     <t>e_IT25-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT25-380</t>
+    <t>grid node -- IT25-380</t>
   </si>
   <si>
     <t>e_IT26-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT26-380</t>
+    <t>grid node -- IT26-380</t>
   </si>
   <si>
     <t>e_IT27-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT27-220</t>
+    <t>grid node -- IT27-220</t>
   </si>
   <si>
     <t>e_IT28-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT28-380</t>
+    <t>grid node -- IT28-380</t>
   </si>
   <si>
     <t>e_IT29-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT29-220</t>
+    <t>grid node -- IT29-220</t>
   </si>
   <si>
     <t>e_IT3-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT3-380</t>
+    <t>grid node -- IT3-380</t>
   </si>
   <si>
     <t>e_IT30-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT30-220</t>
+    <t>grid node -- IT30-220</t>
   </si>
   <si>
     <t>e_IT31-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT31-220</t>
+    <t>grid node -- IT31-220</t>
   </si>
   <si>
     <t>e_IT33-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT33-220</t>
+    <t>grid node -- IT33-220</t>
   </si>
   <si>
     <t>e_IT34-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT34-380</t>
+    <t>grid node -- IT34-380</t>
   </si>
   <si>
     <t>e_IT36-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT36-220</t>
+    <t>grid node -- IT36-220</t>
   </si>
   <si>
     <t>e_IT38-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT38-220</t>
+    <t>grid node -- IT38-220</t>
   </si>
   <si>
     <t>e_IT39-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT39-220</t>
+    <t>grid node -- IT39-220</t>
   </si>
   <si>
     <t>e_IT4-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT4-380</t>
+    <t>grid node -- IT4-380</t>
   </si>
   <si>
     <t>e_IT42-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT42-220</t>
+    <t>grid node -- IT42-220</t>
   </si>
   <si>
     <t>e_IT43-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT43-380</t>
+    <t>grid node -- IT43-380</t>
   </si>
   <si>
     <t>e_IT44-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT44-380,IT45-380</t>
+    <t>grid node -- IT44-380</t>
+  </si>
+  <si>
+    <t>e_IT45-380</t>
+  </si>
+  <si>
+    <t>grid node -- IT45-380</t>
   </si>
   <si>
     <t>e_IT46-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT46-220</t>
+    <t>grid node -- IT46-220</t>
   </si>
   <si>
     <t>e_IT47-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT47-220</t>
+    <t>grid node -- IT47-220</t>
   </si>
   <si>
     <t>e_IT48-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT48-220</t>
+    <t>grid node -- IT48-220</t>
   </si>
   <si>
     <t>e_IT49-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT49-220</t>
+    <t>grid node -- IT49-220</t>
   </si>
   <si>
     <t>e_IT5-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT5-220</t>
+    <t>grid node -- IT5-220</t>
   </si>
   <si>
     <t>e_IT50-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT50-220</t>
+    <t>grid node -- IT50-220</t>
   </si>
   <si>
     <t>e_IT51-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT51-380</t>
+    <t>grid node -- IT51-380</t>
   </si>
   <si>
     <t>e_IT52-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT52-220</t>
+    <t>grid node -- IT52-220</t>
   </si>
   <si>
     <t>e_IT53-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT53-220</t>
+    <t>grid node -- IT53-220</t>
   </si>
   <si>
     <t>e_IT54-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT54-380</t>
+    <t>grid node -- IT54-380</t>
   </si>
   <si>
     <t>e_IT55-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT55-380</t>
+    <t>grid node -- IT55-380</t>
   </si>
   <si>
     <t>e_IT56-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT56-380</t>
+    <t>grid node -- IT56-380</t>
   </si>
   <si>
     <t>e_IT57-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT57-380</t>
+    <t>grid node -- IT57-380</t>
   </si>
   <si>
     <t>e_IT58-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT58-220</t>
+    <t>grid node -- IT58-220</t>
   </si>
   <si>
     <t>e_IT59-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT59-220</t>
+    <t>grid node -- IT59-220</t>
   </si>
   <si>
     <t>e_IT6-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT6-220</t>
+    <t>grid node -- IT6-220</t>
   </si>
   <si>
     <t>e_IT60-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT60-380,IT60-400</t>
+    <t>grid node -- IT60-380</t>
+  </si>
+  <si>
+    <t>e_IT60-400</t>
+  </si>
+  <si>
+    <t>grid node -- IT60-400</t>
   </si>
   <si>
     <t>e_IT61-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT61-380,IT61-400</t>
+    <t>grid node -- IT61-380</t>
+  </si>
+  <si>
+    <t>e_IT61-400</t>
+  </si>
+  <si>
+    <t>grid node -- IT61-400</t>
   </si>
   <si>
     <t>e_IT62-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT62-380</t>
+    <t>grid node -- IT62-380</t>
   </si>
   <si>
     <t>e_IT63-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT63-220</t>
+    <t>grid node -- IT63-220</t>
   </si>
   <si>
     <t>e_IT64-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT64-220</t>
+    <t>grid node -- IT64-220</t>
   </si>
   <si>
     <t>e_IT65-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT65-220</t>
+    <t>grid node -- IT65-220</t>
   </si>
   <si>
     <t>e_IT66-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT66-220</t>
+    <t>grid node -- IT66-220</t>
   </si>
   <si>
     <t>e_IT67-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT67-220</t>
+    <t>grid node -- IT67-220</t>
   </si>
   <si>
     <t>e_IT68-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT68-220</t>
+    <t>grid node -- IT68-220</t>
   </si>
   <si>
     <t>e_IT69-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT69-220</t>
+    <t>grid node -- IT69-220</t>
   </si>
   <si>
     <t>e_IT7-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT7-220</t>
+    <t>grid node -- IT7-220</t>
   </si>
   <si>
     <t>e_IT70-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT70-220</t>
+    <t>grid node -- IT70-220</t>
   </si>
   <si>
     <t>e_IT71-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT71-220</t>
+    <t>grid node -- IT71-220</t>
   </si>
   <si>
     <t>e_IT72-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT72-220</t>
+    <t>grid node -- IT72-220</t>
   </si>
   <si>
     <t>e_IT73-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT73-380</t>
+    <t>grid node -- IT73-380</t>
   </si>
   <si>
     <t>e_IT74-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT74-220</t>
+    <t>grid node -- IT74-220</t>
   </si>
   <si>
     <t>e_IT75-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT75-220</t>
+    <t>grid node -- IT75-220</t>
   </si>
   <si>
     <t>e_IT76-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT76-220</t>
+    <t>grid node -- IT76-220</t>
   </si>
   <si>
     <t>e_IT77-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT77-380</t>
+    <t>grid node -- IT77-380</t>
   </si>
   <si>
     <t>e_IT78-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT78-380</t>
+    <t>grid node -- IT78-380</t>
   </si>
   <si>
     <t>e_IT79-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT79-380</t>
+    <t>grid node -- IT79-380</t>
   </si>
   <si>
     <t>e_IT8-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT8-220</t>
+    <t>grid node -- IT8-220</t>
   </si>
   <si>
     <t>e_IT80-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT80-220</t>
+    <t>grid node -- IT80-220</t>
   </si>
   <si>
     <t>e_IT81-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT81-220</t>
+    <t>grid node -- IT81-220</t>
   </si>
   <si>
     <t>e_IT82-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT82-220</t>
+    <t>grid node -- IT82-220</t>
   </si>
   <si>
     <t>e_IT83-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT83-220</t>
+    <t>grid node -- IT83-220</t>
   </si>
   <si>
     <t>e_IT84-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT84-220</t>
+    <t>grid node -- IT84-220</t>
   </si>
   <si>
     <t>e_IT85-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT85-220</t>
+    <t>grid node -- IT85-220</t>
   </si>
   <si>
     <t>e_IT86-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT86-220</t>
+    <t>grid node -- IT86-220</t>
   </si>
   <si>
     <t>e_IT87-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT87-220</t>
+    <t>grid node -- IT87-220</t>
   </si>
   <si>
     <t>e_IT88-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT88-220</t>
+    <t>grid node -- IT88-220</t>
   </si>
   <si>
     <t>e_IT89-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT89-220</t>
+    <t>grid node -- IT89-220</t>
   </si>
   <si>
     <t>e_IT9-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT9-220</t>
+    <t>grid node -- IT9-220</t>
   </si>
   <si>
     <t>e_IT90-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT90-220</t>
+    <t>grid node -- IT90-220</t>
   </si>
   <si>
     <t>e_IT91-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT91-220</t>
+    <t>grid node -- IT91-220</t>
   </si>
   <si>
     <t>e_IT92-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT92-380</t>
+    <t>grid node -- IT92-380</t>
   </si>
   <si>
     <t>e_IT93-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT93-380</t>
+    <t>grid node -- IT93-380</t>
   </si>
   <si>
     <t>e_IT94-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT94-380</t>
+    <t>grid node -- IT94-380</t>
   </si>
   <si>
     <t>e_IT95-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT95-220</t>
+    <t>grid node -- IT95-220</t>
   </si>
   <si>
     <t>e_IT96-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT96-220</t>
+    <t>grid node -- IT96-220</t>
   </si>
   <si>
     <t>e_IT97-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT97-220</t>
+    <t>grid node -- IT97-220</t>
   </si>
   <si>
     <t>e_IT98-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT98-220</t>
+    <t>grid node -- IT98-220</t>
   </si>
   <si>
     <t>e_IT99-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- IT99-220</t>
+    <t>grid node -- IT99-220</t>
   </si>
   <si>
     <t>e_r13020240-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- relation/13020240-220</t>
+    <t>grid node -- relation/13020240-220</t>
   </si>
   <si>
     <t>e_r1377432-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- relation/1377432-220</t>
+    <t>grid node -- relation/1377432-220</t>
   </si>
   <si>
     <t>e_r13844905-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- relation/13844905-220,relation/13844905-380,way/577074555</t>
+    <t>grid node -- relation/13844905-220</t>
+  </si>
+  <si>
+    <t>e_r13844905-380</t>
+  </si>
+  <si>
+    <t>grid node -- relation/13844905-380</t>
   </si>
   <si>
     <t>e_r17467354-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- relation/17467354-380</t>
+    <t>grid node -- relation/17467354-380</t>
   </si>
   <si>
     <t>e_r6277789-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- relation/6277789-220,relation/6277789-380</t>
+    <t>grid node -- relation/6277789-220</t>
+  </si>
+  <si>
+    <t>e_r6277789-380</t>
+  </si>
+  <si>
+    <t>grid node -- relation/6277789-380</t>
   </si>
   <si>
     <t>e_r6301099-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- relation/6301099-220</t>
+    <t>grid node -- relation/6301099-220</t>
   </si>
   <si>
     <t>e_r7837848-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- relation/7837848-220</t>
+    <t>grid node -- relation/7837848-220</t>
   </si>
   <si>
     <t>e_r8840420-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- relation/8840420-220,way/435433909-220</t>
+    <t>grid node -- relation/8840420-220</t>
   </si>
   <si>
     <t>e_w100113593-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/100113593-380</t>
+    <t>grid node -- way/100113593-380</t>
   </si>
   <si>
     <t>e_w100253768-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/100253768-380,way/136789074</t>
+    <t>grid node -- way/100253768-380</t>
   </si>
   <si>
     <t>e_w100407576-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/100407576-220,way/100407576-380</t>
+    <t>grid node -- way/100407576-220</t>
+  </si>
+  <si>
+    <t>e_w100407576-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/100407576-380</t>
   </si>
   <si>
     <t>e_w100952845-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/100952845-220,way/100952845-380</t>
+    <t>grid node -- way/100952845-220</t>
+  </si>
+  <si>
+    <t>e_w100952845-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/100952845-380</t>
   </si>
   <si>
     <t>e_w101346507-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/101346507-220,way/101346508-220</t>
+    <t>grid node -- way/101346507-220</t>
+  </si>
+  <si>
+    <t>e_w101346508-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/101346508-220</t>
   </si>
   <si>
     <t>e_w102185356-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/102185356-220</t>
+    <t>grid node -- way/102185356-220</t>
   </si>
   <si>
     <t>e_w102185362-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/102185362-220</t>
+    <t>grid node -- way/102185362-220</t>
   </si>
   <si>
     <t>e_w102287716-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/102287716-220,way/102287716-380</t>
+    <t>grid node -- way/102287716-220</t>
+  </si>
+  <si>
+    <t>e_w102287716-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/102287716-380</t>
   </si>
   <si>
     <t>e_w102675884-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/102675884-220</t>
+    <t>grid node -- way/102675884-220</t>
   </si>
   <si>
     <t>e_w103007030-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103007030-220</t>
+    <t>grid node -- way/103007030-220</t>
   </si>
   <si>
     <t>e_w103007085-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103007085-220</t>
+    <t>grid node -- way/103007085-220</t>
   </si>
   <si>
     <t>e_w103127417-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103127417-220</t>
+    <t>grid node -- way/103127417-220</t>
   </si>
   <si>
     <t>e_w103264820-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103264820-220</t>
+    <t>grid node -- way/103264820-220</t>
   </si>
   <si>
     <t>e_w103306951-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103306951-380</t>
+    <t>grid node -- way/103306951-380</t>
   </si>
   <si>
     <t>e_w103381531-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103381531-220,way/103381531-380</t>
+    <t>grid node -- way/103381531-220</t>
+  </si>
+  <si>
+    <t>e_w103381531-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/103381531-380</t>
   </si>
   <si>
     <t>e_w103386958</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103386958,way/103386958-380</t>
+    <t>grid node -- way/103386958</t>
+  </si>
+  <si>
+    <t>e_w103386958-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/103386958-380</t>
   </si>
   <si>
     <t>e_w103418587-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103418587-220</t>
+    <t>grid node -- way/103418587-220</t>
   </si>
   <si>
     <t>e_w103549584-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103549584-220</t>
+    <t>grid node -- way/103549584-220</t>
   </si>
   <si>
     <t>e_w103653565-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103653565-220</t>
+    <t>grid node -- way/103653565-220</t>
   </si>
   <si>
     <t>e_w103653567-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103653567-220,way/103653567-225</t>
+    <t>grid node -- way/103653567-220</t>
+  </si>
+  <si>
+    <t>e_w103653567-225</t>
+  </si>
+  <si>
+    <t>grid node -- way/103653567-225</t>
   </si>
   <si>
     <t>e_w103653591-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103653591-220,way/103653591-380</t>
+    <t>grid node -- way/103653591-220</t>
+  </si>
+  <si>
+    <t>e_w103653591-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/103653591-380</t>
   </si>
   <si>
     <t>e_w103725268-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103725268-220</t>
+    <t>grid node -- way/103725268-220</t>
   </si>
   <si>
     <t>e_w103725446-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103725446-220</t>
+    <t>grid node -- way/103725446-220</t>
   </si>
   <si>
     <t>e_w103974940-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103974940-380</t>
+    <t>grid node -- way/103974940-380</t>
   </si>
   <si>
     <t>e_w103974946-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/103974946-220</t>
+    <t>grid node -- way/103974946-220</t>
   </si>
   <si>
     <t>e_w104114052-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/104114052-220</t>
+    <t>grid node -- way/104114052-220</t>
   </si>
   <si>
     <t>e_w104239286-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/104239286-220</t>
+    <t>grid node -- way/104239286-220</t>
   </si>
   <si>
     <t>e_w104239342-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/104239342-220</t>
+    <t>grid node -- way/104239342-220</t>
   </si>
   <si>
     <t>e_w104239352-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/104239352-380</t>
+    <t>grid node -- way/104239352-380</t>
   </si>
   <si>
     <t>e_w104321356-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/104321356-220</t>
+    <t>grid node -- way/104321356-220</t>
   </si>
   <si>
     <t>e_w104359058-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/104359058-380</t>
+    <t>grid node -- way/104359058-380</t>
   </si>
   <si>
     <t>e_w105062415-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/105062415-220</t>
+    <t>grid node -- way/105062415-220</t>
   </si>
   <si>
     <t>e_w105141307-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/105141307-220</t>
+    <t>grid node -- way/105141307-220</t>
   </si>
   <si>
     <t>e_w105141350-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/105141350-220</t>
+    <t>grid node -- way/105141350-220</t>
   </si>
   <si>
     <t>e_w105141365-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/105141365-220,way/105141365-380,way/105141365-400</t>
+    <t>grid node -- way/105141365-220</t>
+  </si>
+  <si>
+    <t>e_w105141365-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/105141365-380</t>
+  </si>
+  <si>
+    <t>e_w105141365-400</t>
+  </si>
+  <si>
+    <t>grid node -- way/105141365-400</t>
   </si>
   <si>
     <t>e_w105153431-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/105153431-220,way/105153431-380</t>
+    <t>grid node -- way/105153431-220</t>
+  </si>
+  <si>
+    <t>e_w105153431-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/105153431-380</t>
   </si>
   <si>
     <t>e_w1051991398-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1051991398-220</t>
+    <t>grid node -- way/1051991398-220</t>
   </si>
   <si>
     <t>e_w105462289-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/105462289-220</t>
+    <t>grid node -- way/105462289-220</t>
   </si>
   <si>
     <t>e_w105757794-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/105757794-220,way/105757794-380</t>
+    <t>grid node -- way/105757794-220</t>
+  </si>
+  <si>
+    <t>e_w105757794-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/105757794-380</t>
   </si>
   <si>
     <t>e_w105757795-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/105757795-220</t>
+    <t>grid node -- way/105757795-220</t>
   </si>
   <si>
     <t>e_w105801489-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/105801489-220</t>
+    <t>grid node -- way/105801489-220</t>
   </si>
   <si>
     <t>e_w105827045-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/105827045-220</t>
+    <t>grid node -- way/105827045-220</t>
   </si>
   <si>
     <t>e_w107204719-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/107204719-220</t>
+    <t>grid node -- way/107204719-220</t>
   </si>
   <si>
     <t>e_w107438024-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/107438024-380</t>
+    <t>grid node -- way/107438024-380</t>
   </si>
   <si>
     <t>e_w107681459-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/107681459-380</t>
+    <t>grid node -- way/107681459-380</t>
   </si>
   <si>
     <t>e_w107683818-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/107683818-380</t>
+    <t>grid node -- way/107683818-380</t>
   </si>
   <si>
     <t>e_w108020416-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/108020416-220,way/108020416-380</t>
+    <t>grid node -- way/108020416-220</t>
+  </si>
+  <si>
+    <t>e_w108020416-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/108020416-380</t>
   </si>
   <si>
     <t>e_w108050523-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/108050523-220</t>
+    <t>grid node -- way/108050523-220</t>
   </si>
   <si>
     <t>e_w109588422-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/109588422-380</t>
+    <t>grid node -- way/109588422-380</t>
   </si>
   <si>
     <t>e_w109756016-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/109756016-380</t>
+    <t>grid node -- way/109756016-380</t>
   </si>
   <si>
     <t>e_w1097982502-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1097982502-380</t>
+    <t>grid node -- way/1097982502-380</t>
   </si>
   <si>
     <t>e_w1098087457-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1098087457-380</t>
+    <t>grid node -- way/1098087457-380</t>
   </si>
   <si>
     <t>e_w1098527891-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1098527891-220</t>
+    <t>grid node -- way/1098527891-220</t>
   </si>
   <si>
     <t>e_w109993642-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/109993642-380</t>
+    <t>grid node -- way/109993642-380</t>
   </si>
   <si>
     <t>e_w109997676-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/109997676-380</t>
+    <t>grid node -- way/109997676-380</t>
   </si>
   <si>
     <t>e_w1100665914-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1100665914-380</t>
+    <t>grid node -- way/1100665914-380</t>
   </si>
   <si>
     <t>e_w110138220-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/110138220-220,way/110138220-380</t>
+    <t>grid node -- way/110138220-220</t>
+  </si>
+  <si>
+    <t>e_w110138220-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/110138220-380</t>
   </si>
   <si>
     <t>e_w110310021-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/110310021-380</t>
+    <t>grid node -- way/110310021-380</t>
   </si>
   <si>
     <t>e_w110330925-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/110330925-380</t>
+    <t>grid node -- way/110330925-380</t>
   </si>
   <si>
     <t>e_w1103579629-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1103579629-380</t>
+    <t>grid node -- way/1103579629-380</t>
   </si>
   <si>
     <t>e_w110660048-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/110660048-380</t>
+    <t>grid node -- way/110660048-380</t>
   </si>
   <si>
     <t>e_w111020792-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/111020792-220</t>
+    <t>grid node -- way/111020792-220</t>
   </si>
   <si>
     <t>e_w1117128898-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1117128898-380</t>
+    <t>grid node -- way/1117128898-380</t>
   </si>
   <si>
     <t>e_w1134655722-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1134655722-220</t>
+    <t>grid node -- way/1134655722-220</t>
   </si>
   <si>
     <t>e_w114659171-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/114659171-220</t>
+    <t>grid node -- way/114659171-220</t>
   </si>
   <si>
     <t>e_w114661587-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/114661587-220,way/114661587-380</t>
+    <t>grid node -- way/114661587-220</t>
+  </si>
+  <si>
+    <t>e_w114661587-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/114661587-380</t>
   </si>
   <si>
     <t>e_w114931087-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/114931087-380</t>
+    <t>grid node -- way/114931087-380</t>
   </si>
   <si>
     <t>e_w1155109902-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1155109902-220</t>
+    <t>grid node -- way/1155109902-220</t>
   </si>
   <si>
     <t>e_w1155116746-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1155116746-220</t>
+    <t>grid node -- way/1155116746-220</t>
   </si>
   <si>
     <t>e_w1158716725</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1158716725,way/1158716725-380</t>
+    <t>grid node -- way/1158716725</t>
+  </si>
+  <si>
+    <t>e_w1158716725-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/1158716725-380</t>
   </si>
   <si>
     <t>e_w116517585-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/116517585-380</t>
+    <t>grid node -- way/116517585-380</t>
   </si>
   <si>
     <t>e_w116518388-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/116518388-380</t>
+    <t>grid node -- way/116518388-380</t>
   </si>
   <si>
     <t>e_w116519166-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/116519166-380</t>
+    <t>grid node -- way/116519166-380</t>
   </si>
   <si>
     <t>e_w116692433-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/116692433-220</t>
+    <t>grid node -- way/116692433-220</t>
   </si>
   <si>
     <t>e_w116697005-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/116697005-380</t>
+    <t>grid node -- way/116697005-380</t>
   </si>
   <si>
     <t>e_w116797658-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/116797658-220,way/116797658-380</t>
+    <t>grid node -- way/116797658-220</t>
+  </si>
+  <si>
+    <t>e_w116797658-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/116797658-380</t>
   </si>
   <si>
     <t>e_w118987056-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/118987056-220,way/118987056-380</t>
+    <t>grid node -- way/118987056-220</t>
+  </si>
+  <si>
+    <t>e_w118987056-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/118987056-380</t>
   </si>
   <si>
     <t>e_w1203262444-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1203262444-220</t>
+    <t>grid node -- way/1203262444-220</t>
   </si>
   <si>
     <t>e_w120356593-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/120356593-380</t>
+    <t>grid node -- way/120356593-380</t>
   </si>
   <si>
     <t>e_w1204275778-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1204275778-220</t>
+    <t>grid node -- way/1204275778-220</t>
   </si>
   <si>
     <t>e_w1205235724-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1205235724-220</t>
+    <t>grid node -- way/1205235724-220</t>
   </si>
   <si>
     <t>e_w120916823-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/120916823-220</t>
+    <t>grid node -- way/120916823-220</t>
   </si>
   <si>
     <t>e_w124220303-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/124220303-220</t>
+    <t>grid node -- way/124220303-220</t>
   </si>
   <si>
     <t>e_w126203383-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/126203383-380</t>
+    <t>grid node -- way/126203383-380</t>
   </si>
   <si>
     <t>e_w129406824-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/129406824-220</t>
+    <t>grid node -- way/129406824-220</t>
   </si>
   <si>
     <t>e_w131291789-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/131291789-380</t>
+    <t>grid node -- way/131291789-380</t>
   </si>
   <si>
     <t>e_w131295368-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/131295368-220</t>
+    <t>grid node -- way/131295368-220</t>
   </si>
   <si>
     <t>e_w1317893096-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/1317893096-220</t>
+    <t>grid node -- way/1317893096-220</t>
   </si>
   <si>
     <t>e_w132455976-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/132455976-220</t>
+    <t>grid node -- way/132455976-220</t>
   </si>
   <si>
     <t>e_w132637884-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/132637884-220</t>
+    <t>grid node -- way/132637884-220</t>
   </si>
   <si>
     <t>e_w132638645-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/132638645-220</t>
+    <t>grid node -- way/132638645-220</t>
   </si>
   <si>
     <t>e_w132643428-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/132643428-220</t>
+    <t>grid node -- way/132643428-220</t>
   </si>
   <si>
     <t>e_w132645607-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/132645607-220</t>
+    <t>grid node -- way/132645607-220</t>
   </si>
   <si>
     <t>e_w132701023-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/132701023-220</t>
+    <t>grid node -- way/132701023-220</t>
   </si>
   <si>
     <t>e_w132701980-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/132701980-220,way/132701980-380</t>
+    <t>grid node -- way/132701980-220</t>
+  </si>
+  <si>
+    <t>e_w132701980-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/132701980-380</t>
   </si>
   <si>
     <t>e_w132702940-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/132702940-220</t>
+    <t>grid node -- way/132702940-220</t>
   </si>
   <si>
     <t>e_w132725149-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/132725149-220</t>
+    <t>grid node -- way/132725149-220</t>
   </si>
   <si>
     <t>e_w132726160-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/132726160-220</t>
+    <t>grid node -- way/132726160-220</t>
   </si>
   <si>
     <t>e_w133601335-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/133601335-220,way/133601335-380</t>
+    <t>grid node -- way/133601335-220</t>
+  </si>
+  <si>
+    <t>e_w133601335-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/133601335-380</t>
   </si>
   <si>
     <t>e_w135270825-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/135270825-220</t>
+    <t>grid node -- way/135270825-220</t>
   </si>
   <si>
     <t>e_w136457747-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/136457747-220</t>
+    <t>grid node -- way/136457747-220</t>
   </si>
   <si>
     <t>e_w136762727</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/136762727,way/136762727-220,way/136762727-380</t>
+    <t>grid node -- way/136762727</t>
+  </si>
+  <si>
+    <t>e_w136762727-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/136762727-220</t>
+  </si>
+  <si>
+    <t>e_w136762727-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/136762727-380</t>
+  </si>
+  <si>
+    <t>e_w136789074</t>
+  </si>
+  <si>
+    <t>grid node -- way/136789074</t>
   </si>
   <si>
     <t>e_w137317951-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/137317951-220</t>
+    <t>grid node -- way/137317951-220</t>
   </si>
   <si>
     <t>e_w139442467-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/139442467-220,way/139442467-380</t>
+    <t>grid node -- way/139442467-220</t>
+  </si>
+  <si>
+    <t>e_w139442467-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/139442467-380</t>
   </si>
   <si>
     <t>e_w139758444-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/139758444-220</t>
+    <t>grid node -- way/139758444-220</t>
   </si>
   <si>
     <t>e_w139975773-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/139975773-380</t>
+    <t>grid node -- way/139975773-380</t>
   </si>
   <si>
     <t>e_w140715391-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/140715391-220,way/140715391-380</t>
+    <t>grid node -- way/140715391-220</t>
+  </si>
+  <si>
+    <t>e_w140715391-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/140715391-380</t>
   </si>
   <si>
     <t>e_w141046481-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/141046481-220</t>
+    <t>grid node -- way/141046481-220</t>
   </si>
   <si>
     <t>e_w143585004-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/143585004-380</t>
+    <t>grid node -- way/143585004-380</t>
   </si>
   <si>
     <t>e_w144005861-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/144005861-220</t>
+    <t>grid node -- way/144005861-220</t>
   </si>
   <si>
     <t>e_w144005863-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/144005863-380</t>
+    <t>grid node -- way/144005863-380</t>
   </si>
   <si>
     <t>e_w144006711-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/144006711-220</t>
+    <t>grid node -- way/144006711-220</t>
   </si>
   <si>
     <t>e_w144378054-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/144378054-220</t>
+    <t>grid node -- way/144378054-220</t>
   </si>
   <si>
     <t>e_w145665799-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/145665799-220,way/145665799-380</t>
+    <t>grid node -- way/145665799-220</t>
+  </si>
+  <si>
+    <t>e_w145665799-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/145665799-380</t>
   </si>
   <si>
     <t>e_w145665862-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/145665862-380</t>
+    <t>grid node -- way/145665862-380</t>
   </si>
   <si>
     <t>e_w146791061-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/146791061-380</t>
+    <t>grid node -- way/146791061-380</t>
   </si>
   <si>
     <t>e_w146791215-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/146791215-380</t>
+    <t>grid node -- way/146791215-380</t>
   </si>
   <si>
     <t>e_w147466201-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/147466201-220</t>
+    <t>grid node -- way/147466201-220</t>
   </si>
   <si>
     <t>e_w148969091-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/148969091-380</t>
+    <t>grid node -- way/148969091-380</t>
   </si>
   <si>
     <t>e_w149188707-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/149188707-220</t>
+    <t>grid node -- way/149188707-220</t>
   </si>
   <si>
     <t>e_w149997403-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/149997403-380</t>
+    <t>grid node -- way/149997403-380</t>
   </si>
   <si>
     <t>e_w151070909-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/151070909-220</t>
+    <t>grid node -- way/151070909-220</t>
   </si>
   <si>
     <t>e_w151335166-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/151335166-220</t>
+    <t>grid node -- way/151335166-220</t>
   </si>
   <si>
     <t>e_w152457216-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/152457216-220</t>
+    <t>grid node -- way/152457216-220</t>
   </si>
   <si>
     <t>e_w152465478-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/152465478-220</t>
+    <t>grid node -- way/152465478-220</t>
   </si>
   <si>
     <t>e_w152597636-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/152597636-380</t>
+    <t>grid node -- way/152597636-380</t>
   </si>
   <si>
     <t>e_w153548074-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/153548074-220</t>
+    <t>grid node -- way/153548074-220</t>
   </si>
   <si>
     <t>e_w153548156-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/153548156-220</t>
+    <t>grid node -- way/153548156-220</t>
+  </si>
+  <si>
+    <t>e_w153772895-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/153772895-220</t>
   </si>
   <si>
     <t>e_w155158689-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/155158689-380</t>
+    <t>grid node -- way/155158689-380</t>
   </si>
   <si>
     <t>e_w155590373-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/155590373-380</t>
+    <t>grid node -- way/155590373-380</t>
   </si>
   <si>
     <t>e_w155791516-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/155791516-380</t>
+    <t>grid node -- way/155791516-380</t>
   </si>
   <si>
     <t>e_w155976563-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/155976563-220</t>
+    <t>grid node -- way/155976563-220</t>
   </si>
   <si>
     <t>e_w155976582-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/155976582-220</t>
+    <t>grid node -- way/155976582-220</t>
   </si>
   <si>
     <t>e_w156001963-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/156001963-220</t>
+    <t>grid node -- way/156001963-220</t>
   </si>
   <si>
     <t>e_w156001981-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/156001981-220</t>
+    <t>grid node -- way/156001981-220</t>
   </si>
   <si>
     <t>e_w157666416-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/157666416-220</t>
+    <t>grid node -- way/157666416-220</t>
   </si>
   <si>
     <t>e_w157912118-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/157912118-380</t>
+    <t>grid node -- way/157912118-380</t>
   </si>
   <si>
     <t>e_w158599954-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/158599954-220</t>
+    <t>grid node -- way/158599954-220</t>
   </si>
   <si>
     <t>e_w158652469-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/158652469-220</t>
+    <t>grid node -- way/158652469-220</t>
   </si>
   <si>
     <t>e_w158739183-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/158739183-380</t>
+    <t>grid node -- way/158739183-380</t>
   </si>
   <si>
     <t>e_w159158469-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/159158469-220</t>
+    <t>grid node -- way/159158469-220</t>
   </si>
   <si>
     <t>e_w159821869-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/159821869-220</t>
+    <t>grid node -- way/159821869-220</t>
   </si>
   <si>
     <t>e_w161867064-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/161867064-220</t>
+    <t>grid node -- way/161867064-220</t>
   </si>
   <si>
     <t>e_w162066055-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/162066055-220</t>
+    <t>grid node -- way/162066055-220</t>
   </si>
   <si>
     <t>e_w162066058-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/162066058-220</t>
+    <t>grid node -- way/162066058-220</t>
   </si>
   <si>
     <t>e_w162828577-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/162828577-220,way/162828577-380</t>
+    <t>grid node -- way/162828577-220</t>
+  </si>
+  <si>
+    <t>e_w162828577-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/162828577-380</t>
   </si>
   <si>
     <t>e_w162960205-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/162960205-220,way/162960205-380</t>
+    <t>grid node -- way/162960205-220</t>
+  </si>
+  <si>
+    <t>e_w162960205-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/162960205-380</t>
   </si>
   <si>
     <t>e_w163056522-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/163056522-220</t>
+    <t>grid node -- way/163056522-220</t>
   </si>
   <si>
     <t>e_w163056526-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/163056526-220</t>
+    <t>grid node -- way/163056526-220</t>
   </si>
   <si>
     <t>e_w163058980-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/163058980-220</t>
+    <t>grid node -- way/163058980-220</t>
   </si>
   <si>
     <t>e_w163789376-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/163789376-220</t>
+    <t>grid node -- way/163789376-220</t>
   </si>
   <si>
     <t>e_w163958919-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/163958919-220</t>
+    <t>grid node -- way/163958919-220</t>
   </si>
   <si>
     <t>e_w163958920-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/163958920-220</t>
+    <t>grid node -- way/163958920-220</t>
   </si>
   <si>
     <t>e_w166196787-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/166196787-220</t>
+    <t>grid node -- way/166196787-220</t>
   </si>
   <si>
     <t>e_w171270810-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/171270810-380</t>
+    <t>grid node -- way/171270810-380</t>
   </si>
   <si>
     <t>e_w172302572-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/172302572-380</t>
+    <t>grid node -- way/172302572-380</t>
   </si>
   <si>
     <t>e_w172705586-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/172705586-220</t>
+    <t>grid node -- way/172705586-220</t>
   </si>
   <si>
     <t>e_w181125039-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/181125039-220,way/181125039-380</t>
+    <t>grid node -- way/181125039-220</t>
+  </si>
+  <si>
+    <t>e_w181125039-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/181125039-380</t>
   </si>
   <si>
     <t>e_w185576620-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/185576620-220</t>
+    <t>grid node -- way/185576620-220</t>
   </si>
   <si>
     <t>e_w189137043-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/189137043-220</t>
+    <t>grid node -- way/189137043-220</t>
   </si>
   <si>
     <t>e_w189612607-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/189612607-380</t>
+    <t>grid node -- way/189612607-380</t>
   </si>
   <si>
     <t>e_w194186027-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/194186027-220</t>
+    <t>grid node -- way/194186027-220</t>
   </si>
   <si>
     <t>e_w199675964-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/199675964-380</t>
+    <t>grid node -- way/199675964-380</t>
   </si>
   <si>
     <t>e_w199676823-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/199676823-380</t>
+    <t>grid node -- way/199676823-380</t>
   </si>
   <si>
     <t>e_w202178573-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/202178573-220</t>
+    <t>grid node -- way/202178573-220</t>
+  </si>
+  <si>
+    <t>e_w202179060-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/202179060-220</t>
   </si>
   <si>
     <t>e_w202271565-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/202271565-380</t>
+    <t>grid node -- way/202271565-380</t>
   </si>
   <si>
     <t>e_w202272734-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/202272734-220</t>
+    <t>grid node -- way/202272734-220</t>
   </si>
   <si>
     <t>e_w202711181-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/202711181-220</t>
+    <t>grid node -- way/202711181-220</t>
   </si>
   <si>
     <t>e_w202772821-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/202772821-220</t>
+    <t>grid node -- way/202772821-220</t>
   </si>
   <si>
     <t>e_w203225567</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/203225567,way/409439916-380</t>
+    <t>grid node -- way/203225567</t>
   </si>
   <si>
     <t>e_w203468251-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/203468251-220</t>
+    <t>grid node -- way/203468251-220</t>
   </si>
   <si>
     <t>e_w205597560-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/205597560-220</t>
+    <t>grid node -- way/205597560-220</t>
   </si>
   <si>
     <t>e_w207383904-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/207383904-220</t>
+    <t>grid node -- way/207383904-220</t>
   </si>
   <si>
     <t>e_w208398923-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/208398923-380</t>
+    <t>grid node -- way/208398923-380</t>
   </si>
   <si>
     <t>e_w209982720-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/209982720-380</t>
+    <t>grid node -- way/209982720-380</t>
   </si>
   <si>
     <t>e_w211180338-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/211180338-380</t>
+    <t>grid node -- way/211180338-380</t>
   </si>
   <si>
     <t>e_w214294769-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/214294769-220</t>
+    <t>grid node -- way/214294769-220</t>
   </si>
   <si>
     <t>e_w222427976-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/222427976-220</t>
+    <t>grid node -- way/222427976-220</t>
   </si>
   <si>
     <t>e_w236661269-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/236661269-380</t>
+    <t>grid node -- way/236661269-380</t>
   </si>
   <si>
     <t>e_w255011550-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/255011550-380</t>
+    <t>grid node -- way/255011550-380</t>
   </si>
   <si>
     <t>e_w257351439-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/257351439-380</t>
+    <t>grid node -- way/257351439-380</t>
   </si>
   <si>
     <t>e_w288149641-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/288149641-220</t>
+    <t>grid node -- way/288149641-220</t>
   </si>
   <si>
     <t>e_w289178949-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/289178949-220</t>
+    <t>grid node -- way/289178949-220</t>
   </si>
   <si>
     <t>e_w296141722-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/296141722-220</t>
+    <t>grid node -- way/296141722-220</t>
   </si>
   <si>
     <t>e_w303915533-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/303915533-220,way/303915533-380</t>
+    <t>grid node -- way/303915533-220</t>
+  </si>
+  <si>
+    <t>e_w303915533-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/303915533-380</t>
   </si>
   <si>
     <t>e_w303965869-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/303965869-380</t>
+    <t>grid node -- way/303965869-380</t>
   </si>
   <si>
     <t>e_w309371152-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/309371152-220</t>
+    <t>grid node -- way/309371152-220</t>
   </si>
   <si>
     <t>e_w309371153-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/309371153-220</t>
+    <t>grid node -- way/309371153-220</t>
   </si>
   <si>
     <t>e_w321724202-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/321724202-380</t>
+    <t>grid node -- way/321724202-380</t>
   </si>
   <si>
     <t>e_w335012182-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/335012182-220</t>
+    <t>grid node -- way/335012182-220</t>
   </si>
   <si>
     <t>e_w338453112-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/338453112-380</t>
+    <t>grid node -- way/338453112-380</t>
   </si>
   <si>
     <t>e_w338753171-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/338753171-380</t>
+    <t>grid node -- way/338753171-380</t>
   </si>
   <si>
     <t>e_w338760116-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/338760116-380</t>
+    <t>grid node -- way/338760116-380</t>
   </si>
   <si>
     <t>e_w338790588-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/338790588-380</t>
+    <t>grid node -- way/338790588-380</t>
   </si>
   <si>
     <t>e_w338792752-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/338792752-380</t>
+    <t>grid node -- way/338792752-380</t>
   </si>
   <si>
     <t>e_w338795626-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/338795626-380</t>
+    <t>grid node -- way/338795626-380</t>
   </si>
   <si>
     <t>e_w338948868-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/338948868-220</t>
+    <t>grid node -- way/338948868-220</t>
   </si>
   <si>
     <t>e_w338969614-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/338969614-220</t>
+    <t>grid node -- way/338969614-220</t>
   </si>
   <si>
     <t>e_w339104227-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/339104227-380</t>
+    <t>grid node -- way/339104227-380</t>
   </si>
   <si>
     <t>e_w339703159-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/339703159-220,way/339703159-380</t>
+    <t>grid node -- way/339703159-220</t>
+  </si>
+  <si>
+    <t>e_w339703159-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/339703159-380</t>
   </si>
   <si>
     <t>e_w339706878-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/339706878-380</t>
+    <t>grid node -- way/339706878-380</t>
   </si>
   <si>
     <t>e_w339706879-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/339706879-220,way/339706879-380</t>
+    <t>grid node -- way/339706879-220</t>
+  </si>
+  <si>
+    <t>e_w339706879-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/339706879-380</t>
   </si>
   <si>
     <t>e_w339706880-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/339706880-380</t>
+    <t>grid node -- way/339706880-380</t>
   </si>
   <si>
     <t>e_w34157795-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/34157795-220,way/34157795-380</t>
+    <t>grid node -- way/34157795-220</t>
+  </si>
+  <si>
+    <t>e_w34157795-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/34157795-380</t>
   </si>
   <si>
     <t>e_w348500306-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/348500306-220</t>
+    <t>grid node -- way/348500306-220</t>
   </si>
   <si>
     <t>e_w350356755-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/350356755-220</t>
+    <t>grid node -- way/350356755-220</t>
   </si>
   <si>
     <t>e_w354923815-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/354923815-220,way/448777455-220</t>
+    <t>grid node -- way/354923815-220</t>
   </si>
   <si>
     <t>e_w35680992-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/35680992-220</t>
+    <t>grid node -- way/35680992-220</t>
   </si>
   <si>
     <t>e_w363469921-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/363469921-380</t>
+    <t>grid node -- way/363469921-380</t>
   </si>
   <si>
     <t>e_w36873258-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/36873258-220,way/36873258-380</t>
+    <t>grid node -- way/36873258-220</t>
+  </si>
+  <si>
+    <t>e_w36873258-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/36873258-380</t>
   </si>
   <si>
     <t>e_w370531649-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/370531649-220</t>
+    <t>grid node -- way/370531649-220</t>
   </si>
   <si>
     <t>e_w375892272-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/375892272-220</t>
+    <t>grid node -- way/375892272-220</t>
   </si>
   <si>
     <t>e_w375907988-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/375907988-220</t>
+    <t>grid node -- way/375907988-220</t>
   </si>
   <si>
     <t>e_w375908008-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/375908008-220</t>
+    <t>grid node -- way/375908008-220</t>
   </si>
   <si>
     <t>e_w375922075-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/375922075-220</t>
+    <t>grid node -- way/375922075-220</t>
   </si>
   <si>
     <t>e_w375922076-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/375922076-220</t>
+    <t>grid node -- way/375922076-220</t>
   </si>
   <si>
     <t>e_w376351180-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/376351180-220</t>
+    <t>grid node -- way/376351180-220</t>
   </si>
   <si>
     <t>e_w376502663-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/376502663-220</t>
+    <t>grid node -- way/376502663-220</t>
   </si>
   <si>
     <t>e_w376502734-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/376502734-220</t>
+    <t>grid node -- way/376502734-220</t>
   </si>
   <si>
     <t>e_w376642649-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/376642649-220</t>
+    <t>grid node -- way/376642649-220</t>
   </si>
   <si>
     <t>e_w376952592-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/376952592-220</t>
+    <t>grid node -- way/376952592-220</t>
   </si>
   <si>
     <t>e_w376952616-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/376952616-220</t>
+    <t>grid node -- way/376952616-220</t>
   </si>
   <si>
     <t>e_w377444648-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/377444648-220</t>
+    <t>grid node -- way/377444648-220</t>
   </si>
   <si>
     <t>e_w377444657-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/377444657-220</t>
+    <t>grid node -- way/377444657-220</t>
   </si>
   <si>
     <t>e_w377588184-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/377588184-220</t>
+    <t>grid node -- way/377588184-220</t>
   </si>
   <si>
     <t>e_w377588185-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/377588185-220</t>
+    <t>grid node -- way/377588185-220</t>
   </si>
   <si>
     <t>e_w377588191-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/377588191-220</t>
+    <t>grid node -- way/377588191-220</t>
   </si>
   <si>
     <t>e_w377588196-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/377588196-220</t>
+    <t>grid node -- way/377588196-220</t>
   </si>
   <si>
     <t>e_w377830944-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/377830944-220</t>
+    <t>grid node -- way/377830944-220</t>
   </si>
   <si>
     <t>e_w377832777-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/377832777-220</t>
+    <t>grid node -- way/377832777-220</t>
   </si>
   <si>
     <t>e_w392068532-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/392068532-380</t>
+    <t>grid node -- way/392068532-380</t>
   </si>
   <si>
     <t>e_w39255054-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/39255054-380</t>
+    <t>grid node -- way/39255054-380</t>
   </si>
   <si>
     <t>e_w40634284-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/40634284-220,way/40634284-380</t>
+    <t>grid node -- way/40634284-220</t>
+  </si>
+  <si>
+    <t>e_w40634284-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/40634284-380</t>
+  </si>
+  <si>
+    <t>e_w409439916-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/409439916-380</t>
   </si>
   <si>
     <t>e_w409768426-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/409768426-220</t>
+    <t>grid node -- way/409768426-220</t>
   </si>
   <si>
     <t>e_w411026199-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/411026199-380</t>
+    <t>grid node -- way/411026199-380</t>
   </si>
   <si>
     <t>e_w412967421-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/412967421-220</t>
+    <t>grid node -- way/412967421-220</t>
   </si>
   <si>
     <t>e_w412967424-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/412967424-220</t>
+    <t>grid node -- way/412967424-220</t>
   </si>
   <si>
     <t>e_w41360305-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/41360305-380</t>
+    <t>grid node -- way/41360305-380</t>
   </si>
   <si>
     <t>e_w414663585-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/414663585-380</t>
+    <t>grid node -- way/414663585-380</t>
   </si>
   <si>
     <t>e_w416679116-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/416679116-220</t>
+    <t>grid node -- way/416679116-220</t>
   </si>
   <si>
     <t>e_w416679117-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/416679117-220</t>
+    <t>grid node -- way/416679117-220</t>
   </si>
   <si>
     <t>e_w416989699-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/416989699-380</t>
+    <t>grid node -- way/416989699-380</t>
   </si>
   <si>
     <t>e_w418565263-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/418565263-380</t>
+    <t>grid node -- way/418565263-380</t>
   </si>
   <si>
     <t>e_w418565264-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/418565264-380</t>
+    <t>grid node -- way/418565264-380</t>
   </si>
   <si>
     <t>e_w418902800-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/418902800-380</t>
+    <t>grid node -- way/418902800-380</t>
   </si>
   <si>
     <t>e_w41892273-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/41892273-220,way/41892273-380,way/41892273-400</t>
+    <t>grid node -- way/41892273-220</t>
+  </si>
+  <si>
+    <t>e_w41892273-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/41892273-380</t>
+  </si>
+  <si>
+    <t>e_w41892273-400</t>
+  </si>
+  <si>
+    <t>grid node -- way/41892273-400</t>
   </si>
   <si>
     <t>e_w419423700-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/419423700-220</t>
+    <t>grid node -- way/419423700-220</t>
   </si>
   <si>
     <t>e_w419423704-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/419423704-220,way/419423704-380</t>
+    <t>grid node -- way/419423704-220</t>
+  </si>
+  <si>
+    <t>e_w419423704-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/419423704-380</t>
   </si>
   <si>
     <t>e_w419423705-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/419423705-380</t>
+    <t>grid node -- way/419423705-380</t>
   </si>
   <si>
     <t>e_w420698910-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/420698910-220</t>
+    <t>grid node -- way/420698910-220</t>
   </si>
   <si>
     <t>e_w421827453-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/421827453-380</t>
+    <t>grid node -- way/421827453-380</t>
   </si>
   <si>
     <t>e_w42206116-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/42206116-380</t>
+    <t>grid node -- way/42206116-380</t>
   </si>
   <si>
     <t>e_w42862642-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/42862642-220</t>
+    <t>grid node -- way/42862642-220</t>
   </si>
   <si>
     <t>e_w432729521-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/432729521-380</t>
+    <t>grid node -- way/432729521-380</t>
   </si>
   <si>
     <t>e_w432871051-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/432871051-220</t>
+    <t>grid node -- way/432871051-220</t>
   </si>
   <si>
     <t>e_w432871052-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/432871052-220</t>
+    <t>grid node -- way/432871052-220</t>
   </si>
   <si>
     <t>e_w435429368-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/435429368-220</t>
+    <t>grid node -- way/435429368-220</t>
   </si>
   <si>
     <t>e_w435433908-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/435433908-220</t>
+    <t>grid node -- way/435433908-220</t>
+  </si>
+  <si>
+    <t>e_w435433909-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/435433909-220</t>
   </si>
   <si>
     <t>e_w436352445-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/436352445-220</t>
+    <t>grid node -- way/436352445-220</t>
+  </si>
+  <si>
+    <t>e_w448777455-220</t>
+  </si>
+  <si>
+    <t>grid node -- way/448777455-220</t>
   </si>
   <si>
     <t>e_w449694943-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/449694943-380</t>
+    <t>grid node -- way/449694943-380</t>
   </si>
   <si>
     <t>e_w491424937-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/491424937-380,way/491424937-400</t>
+    <t>grid node -- way/491424937-380</t>
+  </si>
+  <si>
+    <t>e_w491424937-400</t>
+  </si>
+  <si>
+    <t>grid node -- way/491424937-400</t>
   </si>
   <si>
     <t>e_w495354824-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/495354824-380</t>
+    <t>grid node -- way/495354824-380</t>
   </si>
   <si>
     <t>e_w504195617-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/504195617-220</t>
+    <t>grid node -- way/504195617-220</t>
   </si>
   <si>
     <t>e_w50589203-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/50589203-220</t>
+    <t>grid node -- way/50589203-220</t>
   </si>
   <si>
     <t>e_w507064051-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/507064051-220</t>
+    <t>grid node -- way/507064051-220</t>
   </si>
   <si>
     <t>e_w527885953-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/527885953-380</t>
+    <t>grid node -- way/527885953-380</t>
   </si>
   <si>
     <t>e_w53635045-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/53635045-220</t>
+    <t>grid node -- way/53635045-220</t>
   </si>
   <si>
     <t>e_w56984450-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/56984450-220</t>
+    <t>grid node -- way/56984450-220</t>
   </si>
   <si>
     <t>e_w57380344-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/57380344-220</t>
+    <t>grid node -- way/57380344-220</t>
   </si>
   <si>
     <t>e_w57384507-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/57384507-220,way/57384507-380</t>
+    <t>grid node -- way/57384507-220</t>
+  </si>
+  <si>
+    <t>e_w57384507-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/57384507-380</t>
   </si>
   <si>
     <t>e_w57403755-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/57403755-220</t>
+    <t>grid node -- way/57403755-220</t>
+  </si>
+  <si>
+    <t>e_w577074555</t>
+  </si>
+  <si>
+    <t>grid node -- way/577074555</t>
   </si>
   <si>
     <t>e_w57736541-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/57736541-220</t>
+    <t>grid node -- way/57736541-220</t>
   </si>
   <si>
     <t>e_w57736553-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/57736553-220</t>
+    <t>grid node -- way/57736553-220</t>
   </si>
   <si>
     <t>e_w58440884-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/58440884-380</t>
+    <t>grid node -- way/58440884-380</t>
   </si>
   <si>
     <t>e_w58516664-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/58516664-220</t>
+    <t>grid node -- way/58516664-220</t>
   </si>
   <si>
     <t>e_w58931857-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/58931857-380</t>
+    <t>grid node -- way/58931857-380</t>
   </si>
   <si>
     <t>e_w58992998-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/58992998-380</t>
+    <t>grid node -- way/58992998-380</t>
   </si>
   <si>
     <t>e_w59026315-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/59026315-220,way/59026315-380</t>
+    <t>grid node -- way/59026315-220</t>
+  </si>
+  <si>
+    <t>e_w59026315-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/59026315-380</t>
   </si>
   <si>
     <t>e_w590522266-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/590522266-220,way/590522266-380</t>
+    <t>grid node -- way/590522266-220</t>
+  </si>
+  <si>
+    <t>e_w590522266-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/590522266-380</t>
   </si>
   <si>
     <t>e_w591027058-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/591027058-380</t>
+    <t>grid node -- way/591027058-380</t>
   </si>
   <si>
     <t>e_w59153311-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/59153311-220,way/59153311-380</t>
+    <t>grid node -- way/59153311-220</t>
+  </si>
+  <si>
+    <t>e_w59153311-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/59153311-380</t>
   </si>
   <si>
     <t>e_w59219335-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/59219335-380</t>
+    <t>grid node -- way/59219335-380</t>
   </si>
   <si>
     <t>e_w59366523-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/59366523-220,way/59366523-380</t>
+    <t>grid node -- way/59366523-220</t>
+  </si>
+  <si>
+    <t>e_w59366523-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/59366523-380</t>
   </si>
   <si>
     <t>e_w59462263-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/59462263-380</t>
+    <t>grid node -- way/59462263-380</t>
   </si>
   <si>
     <t>e_w59462715-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/59462715-380</t>
+    <t>grid node -- way/59462715-380</t>
   </si>
   <si>
     <t>e_w59556712-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/59556712-220,way/59556712-380</t>
+    <t>grid node -- way/59556712-220</t>
+  </si>
+  <si>
+    <t>e_w59556712-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/59556712-380</t>
   </si>
   <si>
     <t>e_w59604857-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/59604857-220</t>
+    <t>grid node -- way/59604857-220</t>
   </si>
   <si>
     <t>e_w59620552-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/59620552-220</t>
+    <t>grid node -- way/59620552-220</t>
   </si>
   <si>
     <t>e_w59629638-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/59629638-220</t>
+    <t>grid node -- way/59629638-220</t>
   </si>
   <si>
     <t>e_w60235685-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/60235685-380</t>
+    <t>grid node -- way/60235685-380</t>
   </si>
   <si>
     <t>e_w60616350-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/60616350-380</t>
+    <t>grid node -- way/60616350-380</t>
   </si>
   <si>
     <t>e_w60725875-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/60725875-220,way/60725875-380</t>
+    <t>grid node -- way/60725875-220</t>
+  </si>
+  <si>
+    <t>e_w60725875-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/60725875-380</t>
   </si>
   <si>
     <t>e_w60888331-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/60888331-380</t>
+    <t>grid node -- way/60888331-380</t>
   </si>
   <si>
     <t>e_w60913666-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/60913666-380</t>
+    <t>grid node -- way/60913666-380</t>
   </si>
   <si>
     <t>e_w60919237-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/60919237-220,way/60919237-380</t>
+    <t>grid node -- way/60919237-220</t>
+  </si>
+  <si>
+    <t>e_w60919237-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/60919237-380</t>
   </si>
   <si>
     <t>e_w61038773-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/61038773-220</t>
+    <t>grid node -- way/61038773-220</t>
   </si>
   <si>
     <t>e_w61157826-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/61157826-380</t>
+    <t>grid node -- way/61157826-380</t>
   </si>
   <si>
     <t>e_w61463169-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/61463169-220</t>
+    <t>grid node -- way/61463169-220</t>
   </si>
   <si>
     <t>e_w61484190-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/61484190-220</t>
+    <t>grid node -- way/61484190-220</t>
   </si>
   <si>
     <t>e_w61626687-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/61626687-380</t>
+    <t>grid node -- way/61626687-380</t>
   </si>
   <si>
     <t>e_w61650514-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/61650514-220</t>
+    <t>grid node -- way/61650514-220</t>
   </si>
   <si>
     <t>e_w61712456-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/61712456-220,way/61712456-380</t>
+    <t>grid node -- way/61712456-220</t>
+  </si>
+  <si>
+    <t>e_w61712456-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/61712456-380</t>
   </si>
   <si>
     <t>e_w62326314-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/62326314-220,way/62326314-380</t>
+    <t>grid node -- way/62326314-220</t>
+  </si>
+  <si>
+    <t>e_w62326314-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/62326314-380</t>
   </si>
   <si>
     <t>e_w64200868-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/64200868-380</t>
+    <t>grid node -- way/64200868-380</t>
   </si>
   <si>
     <t>e_w64942789-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/64942789-380</t>
+    <t>grid node -- way/64942789-380</t>
   </si>
   <si>
     <t>e_w653230504-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/653230504-380</t>
+    <t>grid node -- way/653230504-380</t>
   </si>
   <si>
     <t>e_w66872608-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/66872608-220</t>
+    <t>grid node -- way/66872608-220</t>
   </si>
   <si>
     <t>e_w67461115-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/67461115-220</t>
+    <t>grid node -- way/67461115-220</t>
   </si>
   <si>
     <t>e_w68299044-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/68299044-220,way/68299044-380</t>
+    <t>grid node -- way/68299044-220</t>
+  </si>
+  <si>
+    <t>e_w68299044-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/68299044-380</t>
   </si>
   <si>
     <t>e_w72466334-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/72466334-220,way/72466334-380</t>
+    <t>grid node -- way/72466334-220</t>
+  </si>
+  <si>
+    <t>e_w72466334-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/72466334-380</t>
   </si>
   <si>
     <t>e_w72475426-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/72475426-380</t>
+    <t>grid node -- way/72475426-380</t>
   </si>
   <si>
     <t>e_w72570378-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/72570378-380</t>
+    <t>grid node -- way/72570378-380</t>
   </si>
   <si>
     <t>e_w72570474-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/72570474-380</t>
+    <t>grid node -- way/72570474-380</t>
   </si>
   <si>
     <t>e_w72581705-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/72581705-380</t>
+    <t>grid node -- way/72581705-380</t>
   </si>
   <si>
     <t>e_w74210017-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/74210017-380</t>
+    <t>grid node -- way/74210017-380</t>
   </si>
   <si>
     <t>e_w74359510-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/74359510-220</t>
+    <t>grid node -- way/74359510-220</t>
   </si>
   <si>
     <t>e_w74677138-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/74677138-380</t>
+    <t>grid node -- way/74677138-380</t>
   </si>
   <si>
     <t>e_w74943205-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/74943205-380</t>
+    <t>grid node -- way/74943205-380</t>
   </si>
   <si>
     <t>e_w75378894-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/75378894-220,way/75378894-380</t>
+    <t>grid node -- way/75378894-220</t>
+  </si>
+  <si>
+    <t>e_w75378894-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/75378894-380</t>
   </si>
   <si>
     <t>e_w75602396-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/75602396-380</t>
+    <t>grid node -- way/75602396-380</t>
   </si>
   <si>
     <t>e_w75947556-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/75947556-380</t>
+    <t>grid node -- way/75947556-380</t>
   </si>
   <si>
     <t>e_w76705565-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/76705565-220,way/76705565-380</t>
+    <t>grid node -- way/76705565-220</t>
+  </si>
+  <si>
+    <t>e_w76705565-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/76705565-380</t>
   </si>
   <si>
     <t>e_w76709660-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/76709660-380</t>
+    <t>grid node -- way/76709660-380</t>
   </si>
   <si>
     <t>e_w772234863-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/772234863-220,way/772234863-380</t>
+    <t>grid node -- way/772234863-220</t>
+  </si>
+  <si>
+    <t>e_w772234863-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/772234863-380</t>
   </si>
   <si>
     <t>e_w78066534-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/78066534-380</t>
+    <t>grid node -- way/78066534-380</t>
   </si>
   <si>
     <t>e_w79879290-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/79879290-220</t>
+    <t>grid node -- way/79879290-220</t>
   </si>
   <si>
     <t>e_w80442466-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/80442466-220</t>
+    <t>grid node -- way/80442466-220</t>
   </si>
   <si>
     <t>e_w80517630-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/80517630-220,way/80517630-380</t>
+    <t>grid node -- way/80517630-220</t>
+  </si>
+  <si>
+    <t>e_w80517630-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/80517630-380</t>
   </si>
   <si>
     <t>e_w81929591-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/81929591-380</t>
+    <t>grid node -- way/81929591-380</t>
   </si>
   <si>
     <t>e_w81931074-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/81931074-380</t>
+    <t>grid node -- way/81931074-380</t>
   </si>
   <si>
     <t>e_w81938081-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/81938081-380</t>
+    <t>grid node -- way/81938081-380</t>
   </si>
   <si>
     <t>e_w82078641-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/82078641-220,way/82078641-380</t>
+    <t>grid node -- way/82078641-220</t>
+  </si>
+  <si>
+    <t>e_w82078641-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/82078641-380</t>
   </si>
   <si>
     <t>e_w82083756-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/82083756-380</t>
+    <t>grid node -- way/82083756-380</t>
   </si>
   <si>
     <t>e_w82084013-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/82084013-380</t>
+    <t>grid node -- way/82084013-380</t>
   </si>
   <si>
     <t>e_w82084019-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/82084019-380</t>
+    <t>grid node -- way/82084019-380</t>
   </si>
   <si>
     <t>e_w82651599-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/82651599-220</t>
+    <t>grid node -- way/82651599-220</t>
   </si>
   <si>
     <t>e_w82759380-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/82759380-380</t>
+    <t>grid node -- way/82759380-380</t>
   </si>
   <si>
     <t>e_w82762493-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/82762493-220,way/82762493-380</t>
+    <t>grid node -- way/82762493-220</t>
+  </si>
+  <si>
+    <t>e_w82762493-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/82762493-380</t>
   </si>
   <si>
     <t>e_w82767145-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/82767145-220,way/82767145-380</t>
+    <t>grid node -- way/82767145-220</t>
+  </si>
+  <si>
+    <t>e_w82767145-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/82767145-380</t>
   </si>
   <si>
     <t>e_w82793962-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/82793962-220</t>
+    <t>grid node -- way/82793962-220</t>
   </si>
   <si>
     <t>e_w83058212-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/83058212-380</t>
+    <t>grid node -- way/83058212-380</t>
   </si>
   <si>
     <t>e_w83805453-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/83805453-380</t>
+    <t>grid node -- way/83805453-380</t>
   </si>
   <si>
     <t>e_w83872215-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/83872215-380</t>
+    <t>grid node -- way/83872215-380</t>
   </si>
   <si>
     <t>e_w84277460-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/84277460-220</t>
+    <t>grid node -- way/84277460-220</t>
   </si>
   <si>
     <t>e_w84301904-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/84301904-380</t>
+    <t>grid node -- way/84301904-380</t>
   </si>
   <si>
     <t>e_w84696559-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/84696559-220,way/84696559-380</t>
+    <t>grid node -- way/84696559-220</t>
+  </si>
+  <si>
+    <t>e_w84696559-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/84696559-380</t>
   </si>
   <si>
     <t>e_w84963374-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/84963374-220</t>
+    <t>grid node -- way/84963374-220</t>
   </si>
   <si>
     <t>e_w85196861-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/85196861-220,way/85196861-380</t>
+    <t>grid node -- way/85196861-220</t>
+  </si>
+  <si>
+    <t>e_w85196861-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/85196861-380</t>
   </si>
   <si>
     <t>e_w85297730-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/85297730-220</t>
+    <t>grid node -- way/85297730-220</t>
   </si>
   <si>
     <t>e_w88361192-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/88361192-220</t>
+    <t>grid node -- way/88361192-220</t>
   </si>
   <si>
     <t>e_w891280888-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/891280888-380</t>
+    <t>grid node -- way/891280888-380</t>
   </si>
   <si>
     <t>e_w93038661-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/93038661-380</t>
+    <t>grid node -- way/93038661-380</t>
   </si>
   <si>
     <t>e_w93315059-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/93315059-380</t>
+    <t>grid node -- way/93315059-380</t>
   </si>
   <si>
     <t>e_w93850768-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/93850768-220</t>
+    <t>grid node -- way/93850768-220</t>
   </si>
   <si>
     <t>e_w93860115-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/93860115-220,way/93860115-380</t>
+    <t>grid node -- way/93860115-220</t>
+  </si>
+  <si>
+    <t>e_w93860115-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/93860115-380</t>
   </si>
   <si>
     <t>e_w944660251-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/944660251-220</t>
+    <t>grid node -- way/944660251-220</t>
   </si>
   <si>
     <t>e_w95466193-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/95466193-220</t>
+    <t>grid node -- way/95466193-220</t>
   </si>
   <si>
     <t>e_w95466377-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/95466377-220</t>
+    <t>grid node -- way/95466377-220</t>
   </si>
   <si>
     <t>e_w95840602-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/95840602-380</t>
+    <t>grid node -- way/95840602-380</t>
   </si>
   <si>
     <t>e_w96190189-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/96190189-220,way/96190189-380</t>
+    <t>grid node -- way/96190189-220</t>
+  </si>
+  <si>
+    <t>e_w96190189-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/96190189-380</t>
   </si>
   <si>
     <t>e_w96658563-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/96658563-220</t>
+    <t>grid node -- way/96658563-220</t>
   </si>
   <si>
     <t>e_w96727258-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/96727258-220</t>
+    <t>grid node -- way/96727258-220</t>
   </si>
   <si>
     <t>e_w98421779-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/98421779-380</t>
+    <t>grid node -- way/98421779-380</t>
   </si>
   <si>
     <t>e_w98427149-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/98427149-380</t>
+    <t>grid node -- way/98427149-380</t>
   </si>
   <si>
     <t>e_w98427407-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/98427407-220</t>
+    <t>grid node -- way/98427407-220</t>
   </si>
   <si>
     <t>e_w98638424-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/98638424-220</t>
+    <t>grid node -- way/98638424-220</t>
   </si>
   <si>
     <t>e_w98787157-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/98787157-220</t>
+    <t>grid node -- way/98787157-220</t>
   </si>
   <si>
     <t>e_w988370787-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/988370787-220</t>
+    <t>grid node -- way/988370787-220</t>
   </si>
   <si>
     <t>e_w988654143-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/988654143-380</t>
+    <t>grid node -- way/988654143-380</t>
   </si>
   <si>
     <t>e_w98900549-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/98900549-380</t>
+    <t>grid node -- way/98900549-380</t>
   </si>
   <si>
     <t>e_w98901130-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/98901130-380</t>
+    <t>grid node -- way/98901130-380</t>
   </si>
   <si>
     <t>e_w98902899-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/98902899-220,way/98902899-380</t>
+    <t>grid node -- way/98902899-220</t>
+  </si>
+  <si>
+    <t>e_w98902899-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/98902899-380</t>
   </si>
   <si>
     <t>e_w99694910-380</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/99694910-380</t>
+    <t>grid node -- way/99694910-380</t>
   </si>
   <si>
     <t>e_w99826025-220</t>
   </si>
   <si>
-    <t>aggregated grid node -- way/99826025-220,way/99826025-380</t>
-  </si>
-  <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
+    <t>grid node -- way/99826025-220</t>
+  </si>
+  <si>
+    <t>e_w99826025-380</t>
+  </si>
+  <si>
+    <t>grid node -- way/99826025-380</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
 </sst>
 </file>
@@ -9114,9 +9582,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="49" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
@@ -9588,7 +10056,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FF4D4F-CE45-FDA8-50E8-5147668A94DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609A7ED5-417A-3952-08D9-1A4832480CB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23877,8 +24345,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA60991-75E2-412B-9DD3-409BAE63D513}">
-  <dimension ref="A1:H518"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2194B4C9-C90B-4365-9963-14424DA49CFC}">
+  <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23886,7 +24354,7 @@
   <cols>
     <col min="2" max="2" width="10.59765625" customWidth="1"/>
     <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" customWidth="1"/>
+    <col min="4" max="4" width="26.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.59765625" customWidth="1"/>
@@ -23894,7 +24362,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.05" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>2509</v>
+        <v>2665</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -35751,6 +36219,1800 @@
         <v>1482</v>
       </c>
       <c r="H518" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="519" spans="2:8">
+      <c r="B519" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C519" s="24" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D519" s="24" t="s">
+        <v>2510</v>
+      </c>
+      <c r="E519" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F519" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G519" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H519" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="520" spans="2:8">
+      <c r="B520" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C520" s="25" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D520" s="25" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E520" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F520" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G520" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H520" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="521" spans="2:8">
+      <c r="B521" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C521" s="24" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D521" s="24" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E521" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F521" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G521" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H521" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="522" spans="2:8">
+      <c r="B522" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C522" s="25" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D522" s="25" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E522" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F522" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G522" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H522" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="523" spans="2:8">
+      <c r="B523" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C523" s="24" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D523" s="24" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E523" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F523" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G523" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H523" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="524" spans="2:8">
+      <c r="B524" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C524" s="25" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D524" s="25" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E524" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F524" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G524" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H524" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="525" spans="2:8">
+      <c r="B525" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C525" s="24" t="s">
+        <v>2521</v>
+      </c>
+      <c r="D525" s="24" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E525" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F525" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G525" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H525" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="526" spans="2:8">
+      <c r="B526" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C526" s="25" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D526" s="25" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E526" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F526" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G526" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H526" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="527" spans="2:8">
+      <c r="B527" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C527" s="24" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D527" s="24" t="s">
+        <v>2526</v>
+      </c>
+      <c r="E527" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F527" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G527" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H527" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="528" spans="2:8">
+      <c r="B528" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C528" s="25" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D528" s="25" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E528" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F528" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G528" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H528" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="529" spans="2:8">
+      <c r="B529" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C529" s="24" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D529" s="24" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E529" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F529" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G529" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H529" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="530" spans="2:8">
+      <c r="B530" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C530" s="25" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D530" s="25" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E530" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F530" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G530" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H530" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="531" spans="2:8">
+      <c r="B531" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C531" s="24" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D531" s="24" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E531" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F531" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G531" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H531" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="532" spans="2:8">
+      <c r="B532" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C532" s="25" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D532" s="25" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E532" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F532" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G532" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H532" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="533" spans="2:8">
+      <c r="B533" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C533" s="24" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D533" s="24" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E533" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F533" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G533" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H533" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="534" spans="2:8">
+      <c r="B534" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C534" s="25" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D534" s="25" t="s">
+        <v>2540</v>
+      </c>
+      <c r="E534" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F534" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G534" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H534" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="535" spans="2:8">
+      <c r="B535" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C535" s="24" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D535" s="24" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E535" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F535" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G535" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H535" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="536" spans="2:8">
+      <c r="B536" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C536" s="25" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D536" s="25" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E536" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F536" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G536" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H536" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="537" spans="2:8">
+      <c r="B537" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C537" s="24" t="s">
+        <v>2545</v>
+      </c>
+      <c r="D537" s="24" t="s">
+        <v>2546</v>
+      </c>
+      <c r="E537" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F537" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G537" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H537" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="538" spans="2:8">
+      <c r="B538" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C538" s="25" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D538" s="25" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E538" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F538" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G538" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H538" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="539" spans="2:8">
+      <c r="B539" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C539" s="24" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D539" s="24" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E539" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F539" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G539" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H539" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="540" spans="2:8">
+      <c r="B540" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C540" s="25" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D540" s="25" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E540" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F540" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G540" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H540" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="541" spans="2:8">
+      <c r="B541" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C541" s="24" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D541" s="24" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E541" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F541" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G541" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H541" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="542" spans="2:8">
+      <c r="B542" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C542" s="25" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D542" s="25" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E542" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F542" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G542" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H542" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="543" spans="2:8">
+      <c r="B543" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C543" s="24" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D543" s="24" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E543" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F543" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G543" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H543" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="544" spans="2:8">
+      <c r="B544" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C544" s="25" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D544" s="25" t="s">
+        <v>2560</v>
+      </c>
+      <c r="E544" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F544" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G544" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H544" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="545" spans="2:8">
+      <c r="B545" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C545" s="24" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D545" s="24" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E545" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F545" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G545" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H545" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="546" spans="2:8">
+      <c r="B546" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C546" s="25" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D546" s="25" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E546" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F546" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G546" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H546" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="547" spans="2:8">
+      <c r="B547" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C547" s="24" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D547" s="24" t="s">
+        <v>2566</v>
+      </c>
+      <c r="E547" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F547" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G547" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H547" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="548" spans="2:8">
+      <c r="B548" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C548" s="25" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D548" s="25" t="s">
+        <v>2568</v>
+      </c>
+      <c r="E548" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F548" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G548" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H548" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="549" spans="2:8">
+      <c r="B549" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C549" s="24" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D549" s="24" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E549" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F549" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G549" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H549" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="550" spans="2:8">
+      <c r="B550" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C550" s="25" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D550" s="25" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E550" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F550" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G550" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H550" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="551" spans="2:8">
+      <c r="B551" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C551" s="24" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D551" s="24" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E551" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F551" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G551" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H551" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="552" spans="2:8">
+      <c r="B552" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C552" s="25" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D552" s="25" t="s">
+        <v>2576</v>
+      </c>
+      <c r="E552" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F552" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G552" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H552" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="553" spans="2:8">
+      <c r="B553" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C553" s="24" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D553" s="24" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E553" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F553" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G553" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H553" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="554" spans="2:8">
+      <c r="B554" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C554" s="25" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D554" s="25" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E554" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F554" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G554" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H554" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="555" spans="2:8">
+      <c r="B555" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C555" s="24" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D555" s="24" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E555" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F555" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G555" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H555" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="556" spans="2:8">
+      <c r="B556" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C556" s="25" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D556" s="25" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E556" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F556" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G556" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H556" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="557" spans="2:8">
+      <c r="B557" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C557" s="24" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D557" s="24" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E557" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F557" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G557" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H557" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="558" spans="2:8">
+      <c r="B558" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C558" s="25" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D558" s="25" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E558" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F558" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G558" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H558" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="559" spans="2:8">
+      <c r="B559" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C559" s="24" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D559" s="24" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E559" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F559" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G559" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H559" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="560" spans="2:8">
+      <c r="B560" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C560" s="25" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D560" s="25" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E560" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F560" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G560" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H560" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="561" spans="2:8">
+      <c r="B561" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C561" s="24" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D561" s="24" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E561" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F561" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G561" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H561" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="562" spans="2:8">
+      <c r="B562" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C562" s="25" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D562" s="25" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E562" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F562" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G562" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H562" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="563" spans="2:8">
+      <c r="B563" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C563" s="24" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D563" s="24" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E563" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F563" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G563" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H563" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="564" spans="2:8">
+      <c r="B564" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C564" s="25" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D564" s="25" t="s">
+        <v>2600</v>
+      </c>
+      <c r="E564" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F564" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G564" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H564" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="565" spans="2:8">
+      <c r="B565" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C565" s="24" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D565" s="24" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E565" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F565" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G565" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H565" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="566" spans="2:8">
+      <c r="B566" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C566" s="25" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D566" s="25" t="s">
+        <v>2604</v>
+      </c>
+      <c r="E566" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F566" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G566" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H566" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="567" spans="2:8">
+      <c r="B567" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C567" s="24" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D567" s="24" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E567" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F567" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G567" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H567" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="568" spans="2:8">
+      <c r="B568" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C568" s="25" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D568" s="25" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E568" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F568" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G568" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H568" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="569" spans="2:8">
+      <c r="B569" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C569" s="24" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D569" s="24" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E569" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F569" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G569" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H569" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="570" spans="2:8">
+      <c r="B570" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C570" s="25" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D570" s="25" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E570" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F570" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G570" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H570" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="571" spans="2:8">
+      <c r="B571" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C571" s="24" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D571" s="24" t="s">
+        <v>2614</v>
+      </c>
+      <c r="E571" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F571" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G571" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H571" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="572" spans="2:8">
+      <c r="B572" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C572" s="25" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D572" s="25" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E572" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F572" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G572" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H572" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="573" spans="2:8">
+      <c r="B573" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C573" s="24" t="s">
+        <v>2617</v>
+      </c>
+      <c r="D573" s="24" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E573" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F573" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G573" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H573" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="574" spans="2:8">
+      <c r="B574" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C574" s="25" t="s">
+        <v>2619</v>
+      </c>
+      <c r="D574" s="25" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E574" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F574" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G574" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H574" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="575" spans="2:8">
+      <c r="B575" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C575" s="24" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D575" s="24" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E575" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F575" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G575" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H575" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="576" spans="2:8">
+      <c r="B576" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C576" s="25" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D576" s="25" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E576" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F576" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G576" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H576" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="577" spans="2:8">
+      <c r="B577" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C577" s="24" t="s">
+        <v>2625</v>
+      </c>
+      <c r="D577" s="24" t="s">
+        <v>2626</v>
+      </c>
+      <c r="E577" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F577" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G577" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H577" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="578" spans="2:8">
+      <c r="B578" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C578" s="25" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D578" s="25" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E578" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F578" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G578" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H578" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="579" spans="2:8">
+      <c r="B579" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C579" s="24" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D579" s="24" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E579" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F579" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G579" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H579" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="580" spans="2:8">
+      <c r="B580" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C580" s="25" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D580" s="25" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E580" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F580" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G580" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H580" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="581" spans="2:8">
+      <c r="B581" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C581" s="24" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D581" s="24" t="s">
+        <v>2634</v>
+      </c>
+      <c r="E581" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F581" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G581" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H581" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="582" spans="2:8">
+      <c r="B582" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C582" s="25" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D582" s="25" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E582" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F582" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G582" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H582" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="583" spans="2:8">
+      <c r="B583" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C583" s="24" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D583" s="24" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E583" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F583" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G583" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H583" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="584" spans="2:8">
+      <c r="B584" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C584" s="25" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D584" s="25" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E584" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F584" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G584" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H584" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="585" spans="2:8">
+      <c r="B585" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C585" s="24" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D585" s="24" t="s">
+        <v>2642</v>
+      </c>
+      <c r="E585" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F585" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G585" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H585" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="586" spans="2:8">
+      <c r="B586" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C586" s="25" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D586" s="25" t="s">
+        <v>2644</v>
+      </c>
+      <c r="E586" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F586" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G586" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H586" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="587" spans="2:8">
+      <c r="B587" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C587" s="24" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D587" s="24" t="s">
+        <v>2646</v>
+      </c>
+      <c r="E587" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F587" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G587" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H587" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="588" spans="2:8">
+      <c r="B588" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C588" s="25" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D588" s="25" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E588" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F588" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G588" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H588" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="589" spans="2:8">
+      <c r="B589" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C589" s="24" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D589" s="24" t="s">
+        <v>2650</v>
+      </c>
+      <c r="E589" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F589" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G589" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H589" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="590" spans="2:8">
+      <c r="B590" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C590" s="25" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D590" s="25" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E590" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F590" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G590" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H590" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="591" spans="2:8">
+      <c r="B591" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C591" s="24" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D591" s="24" t="s">
+        <v>2654</v>
+      </c>
+      <c r="E591" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F591" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G591" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H591" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="592" spans="2:8">
+      <c r="B592" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C592" s="25" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D592" s="25" t="s">
+        <v>2656</v>
+      </c>
+      <c r="E592" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F592" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G592" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H592" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="593" spans="2:8">
+      <c r="B593" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C593" s="24" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D593" s="24" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E593" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F593" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G593" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H593" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="594" spans="2:8">
+      <c r="B594" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C594" s="25" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D594" s="25" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E594" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F594" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G594" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H594" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="595" spans="2:8">
+      <c r="B595" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C595" s="24" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D595" s="24" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E595" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F595" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G595" s="24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H595" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="596" spans="2:8">
+      <c r="B596" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C596" s="25" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D596" s="25" t="s">
+        <v>2664</v>
+      </c>
+      <c r="E596" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F596" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G596" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H596" s="25" t="s">
         <v>210</v>
       </c>
     </row>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9341A879-BEBC-4DDD-A517-A90E14BD8195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0673D85A-D9BE-4DE3-9466-882FD6546540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10056,7 +10056,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609A7ED5-417A-3952-08D9-1A4832480CB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAFD9E5-16D4-742D-67FD-68C96019CA69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24345,7 +24345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2194B4C9-C90B-4365-9963-14424DA49CFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091266AA-03EA-42FB-A694-3D50371DBB2E}">
   <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0673D85A-D9BE-4DE3-9466-882FD6546540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB333310-4EAB-47E2-99A6-78C331DED658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10056,7 +10056,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAFD9E5-16D4-742D-67FD-68C96019CA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D01F50-8224-A751-A45F-208F493519FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24345,7 +24345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091266AA-03EA-42FB-A694-3D50371DBB2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F51165-6918-412D-9B84-D6CE1FA0C2AF}">
   <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD00226-1E31-4E54-A815-7134ED77AC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7821A38-D3D3-4685-96F6-E749E6BB7397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8772,7 +8772,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA237B9D-5297-32B6-0039-AB47BC99F5AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A28F50D-D181-0BBD-3D61-CDE3688B0E91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18781,7 +18781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C485E6F-3BC8-478F-96B4-ABE1D96088C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A94783C-4579-4A04-80EE-DA23B32F7ED6}">
   <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7821A38-D3D3-4685-96F6-E749E6BB7397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CD4CA3-08CC-48F5-A41C-8793416CF0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8772,7 +8772,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A28F50D-D181-0BBD-3D61-CDE3688B0E91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A5C699-50BC-0B9B-9060-2E173956A6B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18781,7 +18781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A94783C-4579-4A04-80EE-DA23B32F7ED6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013A84B5-1276-473A-B4F1-C372963EA35C}">
   <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42D65F1-70F8-4CCD-887A-6CABB290BC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D6FAA6-3B02-4D5D-8B26-3FD17FC68AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8775,7 +8775,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C6C08B-08D7-3064-61A1-CFE968D6F822}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C065634-8CE9-6A19-8B90-FE93585BC0B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20382,7 +20382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AF73A7-1431-46B7-91C5-BA8A8CB68007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBD5A75-C360-4ADB-AE04-8F8745DF29CF}">
   <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7E99F1-A59C-49B1-9B79-B2B508CA1DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFAA9D75-9819-4DE1-B454-3C026BAB9698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3207,7 +3207,7 @@
     <t>grid node -- IT1-220</t>
   </si>
   <si>
-    <t>fx</t>
+    <t>lo</t>
   </si>
   <si>
     <t>e_IT10-220</t>
@@ -10996,7 +10996,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4676D0-3FC0-2AF8-4B84-15C236190D93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3FB87ED-F4AD-A341-B20B-047CF600ACD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11051,7 +11051,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C8129F-9B5A-BE32-FE82-B0D7C9C55705}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92010BB0-481A-7AE8-41F1-E35D7C0A9321}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22658,7 +22658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAB4136-F14A-491F-8DD8-AB2D4A57D83C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C4BA80-A5BC-4C5B-A994-A269584C2BD3}">
   <dimension ref="A1:H737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -30781,7 +30781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D60471B-00B3-4CD9-8BE4-83C147C0111B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09CD64A-CE9E-4467-8BAF-9A38967C5399}">
   <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF17193-46A3-4D47-8159-F3959C6AB58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C569CC-0433-496A-9920-BF219DE0458F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8801,7 +8801,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3182E3C5-8CD2-2E79-45B4-53F6EE551776}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492EFA19-EF8A-82A6-8D4E-B2B2386D7A9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9301,7 +9301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A3EDD0-8A8B-4616-8194-D8FD4526DC4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D7D1E7-AA3C-4141-A856-9353D9BB7BB5}">
   <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C569CC-0433-496A-9920-BF219DE0458F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620CFB83-24CA-4F89-BA0C-6DF3CA2E6EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8801,7 +8801,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492EFA19-EF8A-82A6-8D4E-B2B2386D7A9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9689761-9833-0CAD-914B-3DBE915E3265}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9301,7 +9301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D7D1E7-AA3C-4141-A856-9353D9BB7BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C10CBF6-76A8-4F4D-9EDF-445BC81E9537}">
   <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620CFB83-24CA-4F89-BA0C-6DF3CA2E6EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697C3678-B0E5-4F3F-A41A-EE940F7B8EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8801,7 +8801,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9689761-9833-0CAD-914B-3DBE915E3265}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30DDBFC-9D84-6474-8CA4-926039F6975D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9301,7 +9301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C10CBF6-76A8-4F4D-9EDF-445BC81E9537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424F62FE-53CB-4771-A7E4-D599EFC1AB73}">
   <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697C3678-B0E5-4F3F-A41A-EE940F7B8EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA54DC0-F5A8-4EBF-9E9B-DB1F119E8283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8801,7 +8801,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30DDBFC-9D84-6474-8CA4-926039F6975D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DFBD7B-42E6-AE99-8AF5-31FEF27B6545}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9301,7 +9301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424F62FE-53CB-4771-A7E4-D599EFC1AB73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A6E8AE-BE0A-4AD2-99B3-C9C35E464AC0}">
   <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA54DC0-F5A8-4EBF-9E9B-DB1F119E8283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB92CA27-157B-4B05-B90D-99E5C787905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8801,7 +8801,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DFBD7B-42E6-AE99-8AF5-31FEF27B6545}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A591EC69-832F-93B2-A099-0882D97FE8B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9301,7 +9301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A6E8AE-BE0A-4AD2-99B3-C9C35E464AC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A54E7F-CC5E-447B-9A14-6974004C348E}">
   <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB92CA27-157B-4B05-B90D-99E5C787905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC431A1D-2E30-4C4D-B959-12E17A26DEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8801,7 +8801,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A591EC69-832F-93B2-A099-0882D97FE8B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE3A4AB-F5EF-0694-92B3-70A93B009E55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9301,7 +9301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A54E7F-CC5E-447B-9A14-6974004C348E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7860C5-6684-4833-B643-65190F26DF5E}">
   <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC431A1D-2E30-4C4D-B959-12E17A26DEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2733BE2-EBAB-45F2-9BF5-F76E17751C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8801,7 +8801,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE3A4AB-F5EF-0694-92B3-70A93B009E55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3532E3DC-B2C3-C1E8-C149-FD4EC95F1C7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9301,7 +9301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7860C5-6684-4833-B643-65190F26DF5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34892876-C779-4DAE-B2CF-E097F3DD511F}">
   <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA229E01-DEAD-48E1-970E-28477ABB86AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50949D2-BE26-4C5C-921C-691EAC7D2B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1928,1270 +1928,1270 @@
     <t>solar electricity generation in grid cell -- ITA_217</t>
   </si>
   <si>
-    <t>elc_wof-ITA_0019</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_19</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0020</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_20</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0022</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_22</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0027</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_27</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0028</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_28</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0030</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_30</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0031</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_31</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0032</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_32</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0033</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_33</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0034</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_34</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0035</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_35</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0036</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_36</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0039</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_39</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0040</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_40</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0041</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_41</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0042</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_42</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0043</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_43</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0044</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_44</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0045</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_45</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0046</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_46</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0047</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_47</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0048</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_48</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0050</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_50</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0051</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_51</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0052</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_52</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0053</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_53</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0054</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_54</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0055</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_55</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0056</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_56</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0057</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_57</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0058</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_58</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0059</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_59</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0060</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_60</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0061</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_61</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0062</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_62</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0063</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_63</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0064</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_64</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0065</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_65</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0066</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_66</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0067</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_67</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0068</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_68</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0069</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_69</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0070</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_70</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0071</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_71</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0072</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_72</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0073</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_73</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0074</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_74</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0075</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_75</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0076</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_76</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0078</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_78</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0080</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_80</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0081</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_81</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0082</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_82</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0083</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_83</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0084</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_84</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0085</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_85</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0086</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_86</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0087</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_87</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0089</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_89</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0090</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_90</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0091</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_91</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0096</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_96</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0097</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_97</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0098</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_98</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0099</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_99</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0100</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_100</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0102</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_102</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0103</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_103</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0104</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_104</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0105</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_105</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0111</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_111</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0112</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_112</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0113</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_113</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0114</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_114</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0115</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_115</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0116</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_116</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0117</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_117</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0118</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_118</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0119</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_119</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0120</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_120</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0121</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_121</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0122</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_122</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0128</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_128</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0129</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_129</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0130</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_130</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0133</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_133</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0134</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_134</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0135</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_135</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0136</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_136</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0137</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_137</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0138</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_138</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0139</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_139</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0140</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_140</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0143</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_143</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0145</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_145</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0146</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_146</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0147</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_147</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0153</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_153</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0154</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_154</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0155</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_155</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0156</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_156</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0157</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_157</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0158</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_158</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0159</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_159</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0160</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_160</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0165</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_165</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0166</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_166</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0168</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_168</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0169</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_169</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0170</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_170</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0173</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_173</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0174</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_174</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0175</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_175</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0176</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_176</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0177</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_177</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0178</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_178</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0179</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_179</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0183</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_183</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0184</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_184</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0185</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_185</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0187</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_187</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0188</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_188</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0189</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_189</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0191</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_191</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0192</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_192</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0193</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_193</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0194</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_194</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0195</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_195</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0196</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_196</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0197</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_197</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0199</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_199</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0200</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_200</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0201</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_201</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0204</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_204</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0205</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_205</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0206</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_206</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0207</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_207</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0208</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_208</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0209</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_209</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0210</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_210</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0211</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_211</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0212</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_212</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0213</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_213</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0214</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_214</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0215</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_215</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0216</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_216</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0217</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_217</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0218</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_218</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0219</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_219</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0220</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_220</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0221</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_221</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0222</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_222</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0223</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_223</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0224</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_224</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0225</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_225</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0226</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_226</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0227</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_227</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0228</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_228</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0229</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_229</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0230</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_230</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0231</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_231</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0233</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_233</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0234</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_234</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0235</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_235</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0236</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_236</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0237</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_237</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0240</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_240</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0241</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_241</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0242</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_242</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0243</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_243</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0248</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_248</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0249</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_249</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0250</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_250</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0255</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_255</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0256</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_256</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0257</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_257</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0258</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_258</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0259</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_259</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0260</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_260</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0261</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_261</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0262</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_262</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0263</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_263</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0270</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_270</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0271</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_271</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0272</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_272</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0273</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_273</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0274</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_274</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0275</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_275</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0277</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_277</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0278</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_278</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0279</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_279</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0287</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_287</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0288</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_288</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0289</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_289</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0290</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_290</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0291</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_291</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0292</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_292</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0293</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_293</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0294</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_294</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0295</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_295</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0305</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_305</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0306</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_306</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0307</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_307</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0308</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_308</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0309</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_309</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0319</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_319</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0320</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_320</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0321</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_321</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0322</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_322</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0323</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_323</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA_0324</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- ITA_324</t>
+    <t>elc_wof-wof-ITA_0019</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_19</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0020</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_20</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0022</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_22</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0027</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_27</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0028</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_28</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0030</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_30</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0031</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_31</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0032</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_32</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0033</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_33</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0034</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_34</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0035</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_35</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0036</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_36</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0039</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_39</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0040</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_40</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0041</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_41</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0042</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_42</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0043</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_43</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0044</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_44</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0045</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_45</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0046</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_46</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0047</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_47</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0048</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_48</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0050</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_50</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0051</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_51</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0052</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_52</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0053</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_53</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0054</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_54</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0055</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_55</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0056</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_56</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0057</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_57</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0058</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_58</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0059</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_59</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0060</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_60</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0061</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_61</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0062</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_62</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0063</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_63</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0064</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_64</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0065</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_65</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0066</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_66</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0067</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_67</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0068</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_68</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0069</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_69</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0070</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_70</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0071</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_71</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0072</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_72</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0073</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_73</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0074</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_74</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0075</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_75</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0076</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_76</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0078</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_78</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0080</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_80</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0081</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_81</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0082</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_82</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0083</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_83</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0084</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_84</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0085</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_85</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0086</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_86</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0087</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_87</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0089</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_89</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0090</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_90</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0091</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_91</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0096</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_96</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0097</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_97</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0098</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_98</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0099</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_99</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0100</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_100</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0102</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_102</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0103</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_103</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0104</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_104</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0105</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_105</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0111</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_111</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0112</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_112</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0113</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_113</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0114</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_114</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0115</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_115</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0116</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_116</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0117</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_117</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0118</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_118</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0119</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_119</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0120</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_120</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0121</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_121</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0122</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_122</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0128</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_128</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0129</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_129</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0130</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_130</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0133</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_133</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0134</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_134</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0135</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_135</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0136</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_136</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0137</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_137</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0138</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_138</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0139</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_139</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0140</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_140</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0143</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_143</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0145</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_145</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0146</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_146</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0147</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_147</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0153</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_153</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0154</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_154</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0155</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_155</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0156</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_156</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0157</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_157</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0158</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_158</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0159</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_159</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0160</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_160</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0165</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_165</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0166</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_166</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0168</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_168</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0169</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_169</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0170</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_170</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0173</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_173</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0174</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_174</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0175</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_175</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0176</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_176</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0177</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_177</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0178</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_178</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0179</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_179</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0183</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_183</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0184</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_184</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0185</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_185</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0187</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_187</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0188</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_188</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0189</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_189</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0191</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_191</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0192</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_192</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0193</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_193</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0194</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_194</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0195</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_195</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0196</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_196</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0197</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_197</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0199</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_199</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0200</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_200</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0201</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_201</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0204</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_204</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0205</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_205</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0206</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_206</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0207</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_207</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0208</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_208</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0209</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_209</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0210</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_210</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0211</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_211</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0212</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_212</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0213</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_213</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0214</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_214</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0215</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_215</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0216</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_216</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0217</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_217</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0218</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_218</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0219</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_219</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0220</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_220</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0221</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_221</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0222</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_222</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0223</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_223</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0224</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_224</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0225</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_225</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0226</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_226</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0227</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_227</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0228</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_228</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0229</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_229</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0230</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_230</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0231</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_231</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0233</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_233</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0234</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_234</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0235</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_235</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0236</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_236</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0237</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_237</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0240</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_240</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0241</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_241</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0242</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_242</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0243</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_243</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0248</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_248</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0249</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_249</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0250</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_250</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0255</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_255</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0256</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_256</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0257</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_257</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0258</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_258</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0259</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_259</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0260</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_260</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0261</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_261</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0262</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_262</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0263</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_263</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0270</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_270</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0271</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_271</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0272</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_272</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0273</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_273</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0274</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_274</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0275</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_275</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0277</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_277</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0278</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_278</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0279</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_279</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0287</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_287</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0288</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_288</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0289</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_289</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0290</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_290</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0291</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_291</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0292</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_292</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0293</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_293</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0294</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_294</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0295</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_295</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0305</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_305</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0306</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_306</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0307</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_307</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0308</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_308</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0309</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_309</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0319</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_319</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0320</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_320</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0321</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_321</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0322</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_322</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0323</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_323</t>
+  </si>
+  <si>
+    <t>elc_wof-wof-ITA_0324</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- wof-ITA_324</t>
   </si>
   <si>
     <t>elc_won-ITA_0000</t>
@@ -10445,7 +10445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC5A524-2A7B-4E48-B811-C6616503BC7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE56F83C-21B6-49F6-9B00-1B29690314FC}">
   <dimension ref="B3:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50949D2-BE26-4C5C-921C-691EAC7D2B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C50DF21-FCEB-403D-8D2B-7164E0F34107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1928,1270 +1928,1270 @@
     <t>solar electricity generation in grid cell -- ITA_217</t>
   </si>
   <si>
-    <t>elc_wof-wof-ITA_0019</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_19</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0020</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_20</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0022</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_22</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0027</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_27</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0028</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_28</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0030</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_30</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0031</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_31</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0032</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_32</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0033</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_33</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0034</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_34</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0035</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_35</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0036</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_36</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0039</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_39</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0040</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_40</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0041</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_41</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0042</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_42</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0043</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_43</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0044</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_44</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0045</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_45</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0046</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_46</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0047</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_47</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0048</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_48</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0050</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_50</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0051</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_51</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0052</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_52</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0053</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_53</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0054</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_54</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0055</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_55</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0056</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_56</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0057</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_57</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0058</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_58</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0059</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_59</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0060</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_60</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0061</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_61</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0062</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_62</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0063</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_63</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0064</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_64</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0065</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_65</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0066</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_66</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0067</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_67</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0068</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_68</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0069</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_69</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0070</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_70</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0071</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_71</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0072</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_72</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0073</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_73</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0074</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_74</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0075</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_75</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0076</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_76</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0078</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_78</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0080</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_80</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0081</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_81</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0082</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_82</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0083</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_83</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0084</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_84</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0085</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_85</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0086</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_86</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0087</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_87</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0089</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_89</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0090</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_90</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0091</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_91</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0096</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_96</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0097</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_97</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0098</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_98</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0099</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_99</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0100</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_100</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0102</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_102</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0103</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_103</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0104</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_104</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0105</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_105</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0111</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_111</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0112</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_112</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0113</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_113</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0114</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_114</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0115</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_115</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0116</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_116</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0117</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_117</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0118</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_118</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0119</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_119</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0120</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_120</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0121</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_121</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0122</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_122</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0128</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_128</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0129</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_129</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0130</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_130</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0133</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_133</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0134</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_134</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0135</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_135</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0136</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_136</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0137</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_137</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0138</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_138</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0139</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_139</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0140</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_140</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0143</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_143</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0145</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_145</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0146</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_146</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0147</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_147</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0153</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_153</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0154</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_154</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0155</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_155</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0156</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_156</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0157</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_157</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0158</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_158</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0159</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_159</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0160</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_160</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0165</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_165</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0166</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_166</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0168</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_168</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0169</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_169</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0170</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_170</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0173</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_173</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0174</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_174</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0175</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_175</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0176</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_176</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0177</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_177</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0178</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_178</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0179</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_179</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0183</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_183</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0184</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_184</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0185</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_185</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0187</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_187</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0188</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_188</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0189</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_189</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0191</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_191</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0192</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_192</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0193</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_193</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0194</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_194</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0195</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_195</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0196</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_196</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0197</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_197</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0199</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_199</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0200</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_200</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0201</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_201</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0204</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_204</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0205</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_205</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0206</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_206</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0207</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_207</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0208</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_208</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0209</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_209</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0210</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_210</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0211</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_211</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0212</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_212</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0213</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_213</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0214</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_214</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0215</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_215</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0216</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_216</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0217</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_217</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0218</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_218</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0219</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_219</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0220</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_220</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0221</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_221</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0222</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_222</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0223</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_223</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0224</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_224</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0225</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_225</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0226</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_226</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0227</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_227</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0228</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_228</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0229</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_229</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0230</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_230</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0231</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_231</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0233</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_233</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0234</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_234</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0235</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_235</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0236</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_236</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0237</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_237</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0240</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_240</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0241</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_241</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0242</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_242</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0243</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_243</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0248</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_248</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0249</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_249</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0250</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_250</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0255</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_255</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0256</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_256</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0257</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_257</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0258</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_258</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0259</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_259</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0260</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_260</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0261</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_261</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0262</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_262</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0263</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_263</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0270</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_270</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0271</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_271</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0272</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_272</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0273</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_273</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0274</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_274</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0275</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_275</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0277</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_277</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0278</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_278</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0279</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_279</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0287</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_287</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0288</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_288</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0289</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_289</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0290</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_290</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0291</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_291</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0292</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_292</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0293</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_293</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0294</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_294</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0295</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_295</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0305</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_305</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0306</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_306</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0307</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_307</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0308</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_308</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0309</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_309</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0319</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_319</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0320</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_320</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0321</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_321</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0322</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_322</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0323</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_323</t>
-  </si>
-  <si>
-    <t>elc_wof-wof-ITA_0324</t>
-  </si>
-  <si>
-    <t>offshore wind electricity generation in grid cell -- wof-ITA_324</t>
+    <t>elc_wof-ITA_0019</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_19</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0020</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_20</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0022</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_22</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0027</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_27</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0028</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_28</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0030</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_30</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0031</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_31</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0032</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_32</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0033</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_33</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0034</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_34</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0035</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_35</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0036</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_36</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0039</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_39</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0040</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_40</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0041</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_41</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0042</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_42</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0043</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_43</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0044</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_44</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0045</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_45</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0046</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_46</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0047</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_47</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0048</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_48</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0050</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_50</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0051</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_51</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0052</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_52</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0053</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_53</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0054</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_54</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0055</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_55</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0056</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_56</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0057</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_57</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0058</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_58</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0059</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_59</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0060</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_60</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0061</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_61</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0062</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_62</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0063</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_63</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0064</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_64</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0065</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_65</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0066</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_66</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0067</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_67</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0068</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_68</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0069</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_69</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0070</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_70</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0071</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_71</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0072</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_72</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0073</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_73</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0074</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_74</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0075</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_75</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0076</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_76</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0078</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_78</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0080</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_80</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0081</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_81</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0082</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_82</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0083</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_83</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0084</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_84</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0085</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_85</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0086</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_86</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0087</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_87</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0089</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_89</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0090</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_90</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0091</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_91</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0096</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_96</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0097</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_97</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0098</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_98</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0099</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_99</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0100</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_100</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0102</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_102</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0103</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_103</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0104</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_104</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0105</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_105</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0111</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_111</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0112</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_112</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0113</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_113</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0114</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_114</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0115</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_115</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0116</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_116</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0117</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_117</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0118</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_118</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0119</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_119</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0120</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_120</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0121</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_121</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0122</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_122</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0128</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_128</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0129</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_129</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0130</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_130</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0133</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_133</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0134</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_134</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0135</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_135</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0136</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_136</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0137</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_137</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0138</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_138</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0139</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_139</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0140</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_140</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0143</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_143</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0145</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_145</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0146</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_146</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0147</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_147</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0153</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_153</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0154</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_154</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0155</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_155</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0156</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_156</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0157</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_157</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0158</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_158</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0159</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_159</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0160</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_160</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0165</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_165</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0166</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_166</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0168</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_168</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0169</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_169</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0170</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_170</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0173</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_173</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0174</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_174</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0175</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_175</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0176</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_176</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0177</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_177</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0178</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_178</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0179</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_179</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0183</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_183</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0184</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_184</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0185</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_185</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0187</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_187</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0188</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_188</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0189</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_189</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0191</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_191</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0192</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_192</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0193</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_193</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0194</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_194</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0195</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_195</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0196</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_196</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0197</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_197</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0199</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_199</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0200</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_200</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0201</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_201</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0204</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_204</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0205</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_205</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0206</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_206</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0207</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_207</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0208</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_208</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0209</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_209</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0210</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_210</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0211</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_211</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0212</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_212</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0213</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_213</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0214</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_214</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0215</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_215</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0216</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_216</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0217</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_217</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0218</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_218</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0219</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_219</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0220</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_220</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0221</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_221</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0222</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_222</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0223</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_223</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0224</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_224</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0225</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_225</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0226</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_226</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0227</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_227</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0228</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_228</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0229</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_229</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0230</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_230</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0231</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_231</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0233</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_233</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0234</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_234</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0235</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_235</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0236</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_236</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0237</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_237</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0240</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_240</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0241</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_241</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0242</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_242</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0243</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_243</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0248</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_248</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0249</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_249</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0250</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_250</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0255</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_255</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0256</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_256</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0257</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_257</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0258</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_258</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0259</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_259</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0260</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_260</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0261</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_261</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0262</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_262</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0263</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_263</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0270</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_270</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0271</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_271</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0272</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_272</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0273</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_273</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0274</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_274</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0275</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_275</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0277</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_277</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0278</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_278</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0279</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_279</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0287</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_287</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0288</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_288</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0289</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_289</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0290</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_290</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0291</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_291</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0292</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_292</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0293</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_293</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0294</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_294</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0295</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_295</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0305</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_305</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0306</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_306</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0307</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_307</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0308</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_308</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0309</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_309</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0319</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_319</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0320</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_320</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0321</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_321</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0322</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_322</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0323</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_323</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA_0324</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation in grid cell -- ITA_324</t>
   </si>
   <si>
     <t>elc_won-ITA_0000</t>
@@ -10445,7 +10445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE56F83C-21B6-49F6-9B00-1B29690314FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C39EED-D8B0-4444-8E30-30CEFF9BD012}">
   <dimension ref="B3:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C50DF21-FCEB-403D-8D2B-7164E0F34107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136A0F39-951C-48A6-AFC7-F7A423ACAABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10445,7 +10445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C39EED-D8B0-4444-8E30-30CEFF9BD012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5BCAA3-39C5-456A-8AFC-E6107B38D411}">
   <dimension ref="B3:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BD6E30-36A5-4471-A831-C54766EF01CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A7F58-CB15-45E5-83FA-8E52912A081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10451,7 +10451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C00B85-B35B-4C29-AF8E-BE2748294EBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EAF9A5-49C8-4953-BE33-839D1B598255}">
   <dimension ref="B3:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A7F58-CB15-45E5-83FA-8E52912A081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF620B-E68D-4BD6-8C72-41CEA1B561E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10451,7 +10451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EAF9A5-49C8-4953-BE33-839D1B598255}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F12561-7A45-4064-A984-8C22F362F929}">
   <dimension ref="B3:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF620B-E68D-4BD6-8C72-41CEA1B561E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43668236-9BAD-4D31-941F-986070FBAC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10451,7 +10451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F12561-7A45-4064-A984-8C22F362F929}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18E0664-D3C8-4EC9-B096-623C9837D1E9}">
   <dimension ref="B3:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43668236-9BAD-4D31-941F-986070FBAC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53026662-DD23-447E-A4A9-00F1CC12DCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10451,7 +10451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18E0664-D3C8-4EC9-B096-623C9837D1E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB83385-039C-4E93-A9A5-63D7B3791F97}">
   <dimension ref="B3:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53026662-DD23-447E-A4A9-00F1CC12DCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901D8057-4B4F-415B-BADA-F89B1C336D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10451,7 +10451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB83385-039C-4E93-A9A5-63D7B3791F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E408DA05-3239-422C-804E-2821083EE97C}">
   <dimension ref="B3:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901D8057-4B4F-415B-BADA-F89B1C336D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE28EFE2-9F15-4AA1-933D-D727BC2863CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10451,7 +10451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E408DA05-3239-422C-804E-2821083EE97C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A857694-9743-4E5C-9240-0BD947827782}">
   <dimension ref="B3:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SysSettings.xlsx
+++ b/VerveStacks_ITA_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE28EFE2-9F15-4AA1-933D-D727BC2863CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954039AA-5E03-46E5-8A03-9C298DB24EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10451,7 +10451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A857694-9743-4E5C-9240-0BD947827782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C42157-DCA6-46AB-8B31-F04825DFD090}">
   <dimension ref="B3:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
